--- a/static/Models/Regression/Equation/Financial Services.xlsx
+++ b/static/Models/Regression/Equation/Financial Services.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.03046565689146519</v>
+        <v>0.0280877873301506</v>
       </c>
       <c r="C2">
-        <v>0.06059990078210831</v>
+        <v>0.06325140595436096</v>
       </c>
       <c r="D2">
-        <v>0.09531159698963165</v>
+        <v>0.09575649350881577</v>
       </c>
       <c r="E2">
-        <v>0.09004758298397064</v>
+        <v>0.1003866791725159</v>
       </c>
       <c r="F2">
-        <v>0.00145556393545121</v>
+        <v>0.004694010131061077</v>
       </c>
       <c r="G2">
-        <v>0.04820306971669197</v>
+        <v>0.04439297690987587</v>
       </c>
       <c r="H2">
-        <v>0.01091428473591805</v>
+        <v>0.01386355701833963</v>
       </c>
       <c r="I2">
-        <v>0.003174433950334787</v>
+        <v>0.001938656088896096</v>
       </c>
       <c r="J2">
-        <v>-0.145526796579361</v>
+        <v>-0.1497535705566406</v>
       </c>
       <c r="K2">
-        <v>-0.002079725963994861</v>
+        <v>-0.008651823736727238</v>
       </c>
       <c r="L2">
-        <v>0.008281158283352852</v>
+        <v>0.007485277019441128</v>
       </c>
       <c r="M2">
-        <v>-0.002764621749520302</v>
+        <v>-0.003132932586595416</v>
       </c>
       <c r="N2">
-        <v>-0.002175116213038564</v>
+        <v>-0.004492241889238358</v>
       </c>
       <c r="O2">
-        <v>0.01752360351383686</v>
+        <v>0.01470241323113441</v>
       </c>
       <c r="P2">
-        <v>0.1100212261080742</v>
+        <v>0.1082919463515282</v>
       </c>
       <c r="Q2">
-        <v>-0.05832934007048607</v>
+        <v>-0.0588892437517643</v>
       </c>
       <c r="R2">
-        <v>-0.000173772030393593</v>
+        <v>0.001165300491265953</v>
       </c>
       <c r="S2">
-        <v>0.1338514089584351</v>
+        <v>0.128578782081604</v>
       </c>
       <c r="T2">
-        <v>-0.1597751379013062</v>
+        <v>-0.1599214822053909</v>
       </c>
       <c r="U2">
-        <v>0.08246349543333054</v>
+        <v>0.07472309470176697</v>
       </c>
       <c r="V2">
-        <v>-0.007041212636977434</v>
+        <v>-0.002735195681452751</v>
       </c>
       <c r="W2">
-        <v>-0.01845584623515606</v>
+        <v>-0.01454209629446268</v>
       </c>
       <c r="X2">
-        <v>0.009582376107573509</v>
+        <v>0.006495071575045586</v>
       </c>
       <c r="Y2">
-        <v>0.07937043160200119</v>
+        <v>0.07727907598018646</v>
       </c>
       <c r="Z2">
-        <v>0.04191449284553528</v>
+        <v>0.03946541622281075</v>
       </c>
       <c r="AA2">
-        <v>0.0007540961960330606</v>
+        <v>-0.002528093056753278</v>
       </c>
       <c r="AB2">
-        <v>-0.02637991309165955</v>
+        <v>-0.02785674296319485</v>
       </c>
       <c r="AC2">
-        <v>0.06891173124313354</v>
+        <v>0.07736336439847946</v>
       </c>
       <c r="AD2">
-        <v>0.01073814928531647</v>
+        <v>0.01019924320280552</v>
       </c>
       <c r="AE2">
-        <v>0.02440165542066097</v>
+        <v>0.02329765073955059</v>
       </c>
       <c r="AF2">
-        <v>0.009347447194159031</v>
+        <v>0.004351860377937555</v>
       </c>
       <c r="AG2">
-        <v>0.03405679762363434</v>
+        <v>0.04107310250401497</v>
       </c>
       <c r="AH2">
-        <v>0.1255923509597778</v>
+        <v>0.1251420378684998</v>
       </c>
       <c r="AI2">
-        <v>0.01432463340461254</v>
+        <v>0.01471546944230795</v>
       </c>
       <c r="AJ2">
-        <v>-0.001751680159941316</v>
+        <v>-0.004663190804421902</v>
       </c>
       <c r="AK2">
-        <v>-0.01765929348766804</v>
+        <v>-0.01949769631028175</v>
       </c>
       <c r="AL2">
-        <v>-0.002730485983192921</v>
+        <v>-0.001722757471725345</v>
       </c>
       <c r="AM2">
-        <v>-0.02018612995743752</v>
+        <v>-0.01488211750984192</v>
       </c>
       <c r="AN2">
-        <v>0.1063357144594193</v>
+        <v>0.1079185754060745</v>
       </c>
       <c r="AO2">
-        <v>0.01181453187018633</v>
+        <v>0.01647501811385155</v>
       </c>
       <c r="AP2">
-        <v>0.06789059191942215</v>
+        <v>0.05921315029263496</v>
       </c>
       <c r="AQ2">
-        <v>0.008183004334568977</v>
+        <v>0.004144534468650818</v>
       </c>
       <c r="AR2">
-        <v>0.1356640458106995</v>
+        <v>0.1243139207363129</v>
       </c>
       <c r="AS2">
-        <v>-0.0339745432138443</v>
+        <v>-0.03450687229633331</v>
       </c>
       <c r="AT2">
-        <v>-0.02619035169482231</v>
+        <v>-0.02106889337301254</v>
       </c>
       <c r="AU2">
-        <v>-0.03017108514904976</v>
+        <v>-0.02465363219380379</v>
       </c>
       <c r="AV2">
-        <v>0.08454140275716782</v>
+        <v>0.08107568323612213</v>
       </c>
       <c r="AW2">
-        <v>-0.06456714868545532</v>
+        <v>-0.06404775381088257</v>
       </c>
       <c r="AX2">
-        <v>0.03054975345730782</v>
+        <v>0.01830374263226986</v>
       </c>
       <c r="AY2">
-        <v>-0.04990112408995628</v>
+        <v>-0.04693528637290001</v>
       </c>
       <c r="AZ2">
-        <v>-0.007669552695006132</v>
+        <v>-0.009825868532061577</v>
       </c>
       <c r="BA2">
-        <v>-0.05380663275718689</v>
+        <v>-0.05044915154576302</v>
       </c>
       <c r="BB2">
-        <v>0.01983151584863663</v>
+        <v>0.01777719892561436</v>
       </c>
       <c r="BC2">
-        <v>0.003598772687837481</v>
+        <v>0.004756943322718143</v>
       </c>
       <c r="BD2">
-        <v>0.005473564844578505</v>
+        <v>0.005670967046171427</v>
       </c>
       <c r="BE2">
-        <v>0.005071982741355896</v>
+        <v>0.005019805859774351</v>
       </c>
       <c r="BF2">
-        <v>-0.03029227629303932</v>
+        <v>-0.02972028963267803</v>
       </c>
       <c r="BG2">
-        <v>-0.01382237114012241</v>
+        <v>-0.01509247161448002</v>
       </c>
       <c r="BH2">
-        <v>0.006225025746971369</v>
+        <v>0.00546342832967639</v>
       </c>
       <c r="BI2">
-        <v>0.07754255086183548</v>
+        <v>0.07725901156663895</v>
       </c>
       <c r="BJ2">
-        <v>-0.04902742430567741</v>
+        <v>-0.0536959320306778</v>
       </c>
       <c r="BK2">
-        <v>-0.001363554503768682</v>
+        <v>-0.001050182385370135</v>
       </c>
       <c r="BL2">
-        <v>-0.0008734270231798291</v>
+        <v>-0.0003475121920928359</v>
       </c>
       <c r="BM2">
-        <v>0.1076572388410568</v>
+        <v>0.1082035005092621</v>
       </c>
       <c r="BN2">
-        <v>-0.03582999110221863</v>
+        <v>-0.03444322571158409</v>
       </c>
       <c r="BO2">
-        <v>0.01037554908543825</v>
+        <v>0.01481463201344013</v>
       </c>
       <c r="BP2">
-        <v>0.1361936777830124</v>
+        <v>0.136564239859581</v>
       </c>
       <c r="BQ2">
-        <v>0.03850826621055603</v>
+        <v>0.03750027343630791</v>
       </c>
       <c r="BR2">
-        <v>0.006043423432856798</v>
+        <v>0.002666922053322196</v>
       </c>
       <c r="BS2">
-        <v>-0.003502270439639688</v>
+        <v>-0.004797153174877167</v>
       </c>
       <c r="BT2">
-        <v>0.01425221655517817</v>
+        <v>0.01126539893448353</v>
       </c>
       <c r="BU2">
-        <v>-0.04171952232718468</v>
+        <v>-0.03806836903095245</v>
       </c>
       <c r="BV2">
-        <v>-0.01858061552047729</v>
+        <v>-0.0200128760188818</v>
       </c>
       <c r="BW2">
-        <v>0.006480974145233631</v>
+        <v>0.01264080684632063</v>
       </c>
       <c r="BX2">
-        <v>0.09474235773086548</v>
+        <v>0.09091821312904358</v>
       </c>
       <c r="BY2">
-        <v>-0.005002877674996853</v>
+        <v>-0.006930656265467405</v>
       </c>
       <c r="BZ2">
-        <v>-0.001659342553466558</v>
+        <v>-0.0057237115688622</v>
       </c>
       <c r="CA2">
-        <v>0.01524687651544809</v>
+        <v>0.01737218908965588</v>
       </c>
       <c r="CB2">
-        <v>-0.1328917741775513</v>
+        <v>-0.1288999170064926</v>
       </c>
       <c r="CC2">
-        <v>0.007615959271788597</v>
+        <v>0.005854740738868713</v>
       </c>
       <c r="CD2">
-        <v>0.0036994987167418</v>
+        <v>0.001673761871643364</v>
       </c>
       <c r="CE2">
-        <v>0.1501903533935547</v>
+        <v>0.155459463596344</v>
       </c>
       <c r="CF2">
-        <v>-0.02400431968271732</v>
+        <v>-0.02604740858078003</v>
       </c>
       <c r="CG2">
-        <v>0.09200120717287064</v>
+        <v>0.09913328289985657</v>
       </c>
       <c r="CH2">
-        <v>0.02497459575533867</v>
+        <v>0.01524047646671534</v>
       </c>
       <c r="CI2">
-        <v>0.0178521703928709</v>
+        <v>0.01781630702316761</v>
       </c>
       <c r="CJ2">
-        <v>0.08656167238950729</v>
+        <v>0.08355958014726639</v>
       </c>
       <c r="CK2">
-        <v>-0.03170076012611389</v>
+        <v>-0.02896680682897568</v>
       </c>
       <c r="CL2">
-        <v>0.001906699733808637</v>
+        <v>0.001472570700570941</v>
       </c>
       <c r="CM2">
-        <v>0.0108928456902504</v>
+        <v>0.01293564215302467</v>
       </c>
       <c r="CN2">
-        <v>-0.00132098060566932</v>
+        <v>-0.005140189081430435</v>
       </c>
       <c r="CO2">
-        <v>0.002662747399881482</v>
+        <v>0.003042469965294003</v>
       </c>
       <c r="CP2">
-        <v>0.09024593234062195</v>
+        <v>0.0895383283495903</v>
       </c>
       <c r="CQ2">
-        <v>-0.01293683145195246</v>
+        <v>-0.01164505537599325</v>
       </c>
       <c r="CR2">
-        <v>-0.002619530772790313</v>
+        <v>0.002946598688140512</v>
       </c>
       <c r="CS2">
-        <v>-0.007330510765314102</v>
+        <v>-0.007658171467483044</v>
       </c>
       <c r="CT2">
-        <v>0.006228172685950994</v>
+        <v>0.005224810913205147</v>
       </c>
       <c r="CU2">
-        <v>0.01041894406080246</v>
+        <v>0.01352664828300476</v>
       </c>
       <c r="CV2">
-        <v>0.002362166298553348</v>
+        <v>0.002290499396622181</v>
       </c>
       <c r="CW2">
-        <v>-0.1580661088228226</v>
+        <v>-0.1736625880002975</v>
       </c>
       <c r="CX2">
-        <v>0.01130460575222969</v>
+        <v>0.0007776491111144423</v>
       </c>
       <c r="CY2">
-        <v>0.03582781180739403</v>
+        <v>0.03677765280008316</v>
       </c>
       <c r="CZ2">
-        <v>-0.005600309930741787</v>
+        <v>-0.006689741741865873</v>
       </c>
       <c r="DA2">
-        <v>-0.07240375131368637</v>
+        <v>-0.07647917419672012</v>
       </c>
       <c r="DB2">
-        <v>-0.0342102088034153</v>
+        <v>-0.03510941937565804</v>
       </c>
       <c r="DC2">
-        <v>0.001639674999751151</v>
+        <v>0.001706962240859866</v>
       </c>
       <c r="DD2">
-        <v>0.1549507826566696</v>
+        <v>0.1495436429977417</v>
       </c>
       <c r="DE2">
-        <v>-0.001741492189466953</v>
+        <v>-0.001692308578640223</v>
       </c>
       <c r="DF2">
-        <v>0.0193428136408329</v>
+        <v>0.01835153251886368</v>
       </c>
       <c r="DG2">
-        <v>0.001335727516561747</v>
+        <v>-0.007214243523776531</v>
       </c>
       <c r="DH2">
-        <v>-0.04557782411575317</v>
+        <v>-0.04777493700385094</v>
       </c>
       <c r="DI2">
-        <v>0.001778463134542108</v>
+        <v>0.008370840921998024</v>
       </c>
       <c r="DJ2">
-        <v>0.02527772448956966</v>
+        <v>0.0266405139118433</v>
       </c>
       <c r="DK2">
-        <v>-0.06887450814247131</v>
+        <v>-0.0747181624174118</v>
       </c>
       <c r="DL2">
-        <v>-0.0002801205264404416</v>
+        <v>0.008016756735742092</v>
       </c>
       <c r="DM2">
-        <v>0.05714111402630806</v>
+        <v>0.06080884113907814</v>
       </c>
       <c r="DN2">
-        <v>-0.03039831668138504</v>
+        <v>-0.0311115924268961</v>
       </c>
       <c r="DO2">
-        <v>-0.02577143162488937</v>
+        <v>-0.01773140393197536</v>
       </c>
       <c r="DP2">
-        <v>0.001468305941671133</v>
+        <v>-0.002539534354582429</v>
       </c>
       <c r="DQ2">
-        <v>-0.002533423248678446</v>
+        <v>-0.00369249889627099</v>
       </c>
       <c r="DR2">
-        <v>-0.00911445077508688</v>
+        <v>-0.008177531883120537</v>
       </c>
       <c r="DS2">
-        <v>-0.03895356878638268</v>
+        <v>-0.03761379793286324</v>
       </c>
       <c r="DT2">
-        <v>-0.05087999626994133</v>
+        <v>-0.05070098862051964</v>
       </c>
       <c r="DU2">
-        <v>0.07804463803768158</v>
+        <v>0.08231092244386673</v>
       </c>
       <c r="DV2">
-        <v>0.006870741955935955</v>
+        <v>0.01284382678568363</v>
       </c>
       <c r="DW2">
-        <v>0.00553968595340848</v>
+        <v>0.004081039689481258</v>
       </c>
       <c r="DX2">
-        <v>0.0756479948759079</v>
+        <v>0.07515131682157516</v>
       </c>
       <c r="DY2">
-        <v>0.04909327626228333</v>
+        <v>0.04744190350174904</v>
       </c>
       <c r="DZ2">
-        <v>-0.00166580465156585</v>
+        <v>-0.008536956273019314</v>
       </c>
       <c r="EA2">
-        <v>0.01337890326976776</v>
+        <v>0.008985771797597408</v>
       </c>
       <c r="EB2">
-        <v>-0.04514213651418686</v>
+        <v>-0.04504156857728958</v>
       </c>
       <c r="EC2">
-        <v>0.008650838397443295</v>
+        <v>0.01322912331670523</v>
       </c>
       <c r="ED2">
-        <v>0.2318988889455795</v>
+        <v>0.2324685454368591</v>
       </c>
       <c r="EE2">
-        <v>-0.005199894309043884</v>
+        <v>-0.006078784819692373</v>
       </c>
       <c r="EF2">
-        <v>-8.0476253060624E-05</v>
+        <v>-0.01086693815886974</v>
       </c>
       <c r="EG2">
-        <v>-0.0674230083823204</v>
+        <v>-0.05889502912759781</v>
       </c>
       <c r="EH2">
-        <v>0.06877840310335159</v>
+        <v>0.06244181841611862</v>
       </c>
       <c r="EI2">
-        <v>-0.1258448362350464</v>
+        <v>-0.131183534860611</v>
       </c>
       <c r="EJ2">
-        <v>0.07161383330821991</v>
+        <v>0.06632234901189804</v>
       </c>
       <c r="EK2">
-        <v>0.001284006400965154</v>
+        <v>0.0003268377913627774</v>
       </c>
       <c r="EL2">
-        <v>-0.0004785050405189395</v>
+        <v>-0.0001937723282026127</v>
       </c>
       <c r="EM2">
-        <v>-0.00338531075976789</v>
+        <v>0.003382697235792875</v>
       </c>
       <c r="EN2">
-        <v>-0.0602334663271904</v>
+        <v>-0.06156636402010918</v>
       </c>
       <c r="EO2">
-        <v>0.01453548297286034</v>
+        <v>0.01974035426974297</v>
       </c>
       <c r="EP2">
-        <v>0.07944227010011673</v>
+        <v>0.07579436898231506</v>
       </c>
       <c r="EQ2">
-        <v>0.08280324935913086</v>
+        <v>0.08357955515384674</v>
       </c>
       <c r="ER2">
-        <v>-0.003002427518367767</v>
+        <v>-0.002508083358407021</v>
       </c>
       <c r="ES2">
-        <v>0.02478166855871677</v>
+        <v>0.01963169127702713</v>
       </c>
       <c r="ET2">
-        <v>0.03959536924958229</v>
+        <v>0.03423088788986206</v>
       </c>
       <c r="EU2">
-        <v>0.0242381040006876</v>
+        <v>0.02404444105923176</v>
       </c>
       <c r="EV2">
-        <v>0.04391014575958252</v>
+        <v>0.03538059815764427</v>
       </c>
       <c r="EW2">
-        <v>0.1290024966001511</v>
+        <v>0.1287099421024323</v>
       </c>
       <c r="EX2">
-        <v>0.1013925448060036</v>
+        <v>0.09912053495645523</v>
       </c>
       <c r="EY2">
-        <v>0.01474621891975403</v>
+        <v>0.01642740704119205</v>
       </c>
       <c r="EZ2">
-        <v>-0.1863579601049423</v>
+        <v>-0.1819901168346405</v>
       </c>
       <c r="FA2">
-        <v>0.004819922149181366</v>
+        <v>0.01328182127326727</v>
       </c>
       <c r="FB2">
-        <v>-0.001062148134224117</v>
+        <v>-0.002780171344056726</v>
       </c>
       <c r="FC2">
-        <v>-0.02472568675875664</v>
+        <v>-0.02898460067808628</v>
       </c>
       <c r="FD2">
-        <v>0.007092095911502838</v>
+        <v>0.005270007066428661</v>
       </c>
       <c r="FE2">
-        <v>-0.04379534348845482</v>
+        <v>-0.04427795484662056</v>
       </c>
       <c r="FF2">
-        <v>0.05220268294215202</v>
+        <v>0.04751438647508621</v>
       </c>
       <c r="FG2">
-        <v>0.01806686446070671</v>
+        <v>0.007887554354965687</v>
       </c>
       <c r="FH2">
-        <v>-0.006717470940202475</v>
+        <v>-0.008061294443905354</v>
       </c>
       <c r="FI2">
-        <v>-0.0696675032377243</v>
+        <v>-0.07644157111644745</v>
       </c>
       <c r="FJ2">
-        <v>0.0009430897189304233</v>
+        <v>0.007313905283808708</v>
       </c>
       <c r="FK2">
-        <v>0.01757846958935261</v>
+        <v>0.009802106767892838</v>
       </c>
       <c r="FL2">
-        <v>0.0007194227655418217</v>
+        <v>-0.004535440821200609</v>
       </c>
       <c r="FM2">
-        <v>-0.05400387942790985</v>
+        <v>-0.04820731654763222</v>
       </c>
       <c r="FN2">
-        <v>0.01006034389138222</v>
+        <v>0.01214385963976383</v>
       </c>
       <c r="FO2">
-        <v>-0.0007169637246988714</v>
+        <v>-0.002501764101907611</v>
       </c>
       <c r="FP2">
-        <v>0.001070167403668165</v>
+        <v>0.004484703298658133</v>
       </c>
       <c r="FQ2">
-        <v>-0.0004872611025348306</v>
+        <v>-0.0001597560767550021</v>
       </c>
       <c r="FR2">
-        <v>0.006067112553864717</v>
+        <v>0.00506255030632019</v>
       </c>
       <c r="FS2">
-        <v>-0.002434870693832636</v>
+        <v>-0.003231749404221773</v>
       </c>
       <c r="FT2">
-        <v>-0.00277826632373035</v>
+        <v>-0.003251511370763183</v>
       </c>
       <c r="FU2">
-        <v>-0.06666278094053268</v>
+        <v>-0.06644489616155624</v>
       </c>
       <c r="FV2">
-        <v>0.0668339878320694</v>
+        <v>0.07054608315229416</v>
       </c>
       <c r="FW2">
-        <v>0.05744300410151482</v>
+        <v>0.05431350320577621</v>
       </c>
       <c r="FX2">
-        <v>-0.007539683487266302</v>
+        <v>-0.005762829910963774</v>
       </c>
       <c r="FY2">
-        <v>0.002385747153311968</v>
+        <v>0.004471140913665295</v>
       </c>
       <c r="FZ2">
-        <v>0.01754690147936344</v>
+        <v>0.01813652366399765</v>
       </c>
       <c r="GA2">
-        <v>0.01557888463139534</v>
+        <v>0.02006054669618607</v>
       </c>
       <c r="GB2">
-        <v>0.001235007541254163</v>
+        <v>0.001582663622684777</v>
       </c>
       <c r="GC2">
-        <v>-0.03513786569237709</v>
+        <v>-0.03643776103854179</v>
       </c>
       <c r="GD2">
-        <v>-0.0170480739325285</v>
+        <v>-0.02200285159051418</v>
       </c>
       <c r="GE2">
-        <v>0.004672020208090544</v>
+        <v>0.004630065057426691</v>
       </c>
       <c r="GF2">
-        <v>-0.03966502100229263</v>
+        <v>-0.04715410992503166</v>
       </c>
       <c r="GG2">
-        <v>-0.07363421469926834</v>
+        <v>-0.08243411779403687</v>
       </c>
       <c r="GH2">
-        <v>-0.007864725776016712</v>
+        <v>-0.003839274635538459</v>
       </c>
       <c r="GI2">
-        <v>0.00595350656658411</v>
+        <v>0.0003262061218265444</v>
       </c>
       <c r="GJ2">
-        <v>0.0004094435425940901</v>
+        <v>0.002562988316640258</v>
       </c>
       <c r="GK2">
-        <v>-0.1442264467477798</v>
+        <v>-0.1486270129680634</v>
       </c>
       <c r="GL2">
-        <v>-0.05630342662334442</v>
+        <v>-0.04600665718317032</v>
       </c>
       <c r="GM2">
-        <v>-0.0242726095020771</v>
+        <v>-0.02710434608161449</v>
       </c>
       <c r="GN2">
-        <v>0.06297580897808075</v>
+        <v>0.063921719789505</v>
       </c>
       <c r="GO2">
-        <v>0.05340032279491425</v>
+        <v>0.05100641772150993</v>
       </c>
       <c r="GP2">
-        <v>-0.03854284062981606</v>
+        <v>-0.03908036276698112</v>
       </c>
       <c r="GQ2">
-        <v>-0.005835599265992641</v>
+        <v>-0.008392998017370701</v>
       </c>
       <c r="GR2">
-        <v>-0.005043832119554281</v>
+        <v>-0.003069967962801456</v>
       </c>
       <c r="GS2">
-        <v>-0.02352052368223667</v>
+        <v>-0.03405671194195747</v>
       </c>
       <c r="GT2">
-        <v>-0.001607544254511595</v>
+        <v>-0.003895558184012771</v>
       </c>
       <c r="GU2">
-        <v>0.003748279297724366</v>
+        <v>0.004813286010175943</v>
       </c>
       <c r="GV2">
-        <v>0.0107211135327816</v>
+        <v>0.01268769707530737</v>
       </c>
       <c r="GW2">
-        <v>0.001537809032015502</v>
+        <v>-0.009889198467135429</v>
       </c>
       <c r="GX2">
-        <v>0.006598575972020626</v>
+        <v>0.005496191326528788</v>
       </c>
       <c r="GY2">
-        <v>-0.004415641073137522</v>
+        <v>-0.004713437985628843</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Financial Services.xlsx
+++ b/static/Models/Regression/Equation/Financial Services.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.0280877873301506</v>
+        <v>0.03130657970905304</v>
       </c>
       <c r="C2">
-        <v>0.06325140595436096</v>
+        <v>0.07481084018945694</v>
       </c>
       <c r="D2">
-        <v>0.09575649350881577</v>
+        <v>0.0985138788819313</v>
       </c>
       <c r="E2">
-        <v>0.1003866791725159</v>
+        <v>0.09648273140192032</v>
       </c>
       <c r="F2">
-        <v>0.004694010131061077</v>
+        <v>0.01271346863359213</v>
       </c>
       <c r="G2">
-        <v>0.04439297690987587</v>
+        <v>0.04919232428073883</v>
       </c>
       <c r="H2">
-        <v>0.01386355701833963</v>
+        <v>0.02254506945610046</v>
       </c>
       <c r="I2">
-        <v>0.001938656088896096</v>
+        <v>0.001199204474687576</v>
       </c>
       <c r="J2">
-        <v>-0.1497535705566406</v>
+        <v>-0.146454930305481</v>
       </c>
       <c r="K2">
-        <v>-0.008651823736727238</v>
+        <v>0.001153781544417143</v>
       </c>
       <c r="L2">
-        <v>0.007485277019441128</v>
+        <v>0.00683956453576684</v>
       </c>
       <c r="M2">
-        <v>-0.003132932586595416</v>
+        <v>-0.0005187254282645881</v>
       </c>
       <c r="N2">
-        <v>-0.004492241889238358</v>
+        <v>-0.001138446037657559</v>
       </c>
       <c r="O2">
-        <v>0.01470241323113441</v>
+        <v>0.02065719105303288</v>
       </c>
       <c r="P2">
-        <v>0.1082919463515282</v>
+        <v>0.09736360609531403</v>
       </c>
       <c r="Q2">
-        <v>-0.0588892437517643</v>
+        <v>-0.05034720525145531</v>
       </c>
       <c r="R2">
-        <v>0.001165300491265953</v>
+        <v>0.0009022237500175834</v>
       </c>
       <c r="S2">
-        <v>0.128578782081604</v>
+        <v>0.1265615969896317</v>
       </c>
       <c r="T2">
-        <v>-0.1599214822053909</v>
+        <v>-0.1607419401407242</v>
       </c>
       <c r="U2">
-        <v>0.07472309470176697</v>
+        <v>0.07931101322174072</v>
       </c>
       <c r="V2">
-        <v>-0.002735195681452751</v>
+        <v>-0.002903777873143554</v>
       </c>
       <c r="W2">
-        <v>-0.01454209629446268</v>
+        <v>-0.01451334916055202</v>
       </c>
       <c r="X2">
-        <v>0.006495071575045586</v>
+        <v>0.0005041048862040043</v>
       </c>
       <c r="Y2">
-        <v>0.07727907598018646</v>
+        <v>0.08534563332796097</v>
       </c>
       <c r="Z2">
-        <v>0.03946541622281075</v>
+        <v>0.03899360820651054</v>
       </c>
       <c r="AA2">
-        <v>-0.002528093056753278</v>
+        <v>-0.001586880767717957</v>
       </c>
       <c r="AB2">
-        <v>-0.02785674296319485</v>
+        <v>-0.02558562904596329</v>
       </c>
       <c r="AC2">
-        <v>0.07736336439847946</v>
+        <v>0.07725085318088531</v>
       </c>
       <c r="AD2">
-        <v>0.01019924320280552</v>
+        <v>0.01016321964561939</v>
       </c>
       <c r="AE2">
-        <v>0.02329765073955059</v>
+        <v>0.02628879807889462</v>
       </c>
       <c r="AF2">
-        <v>0.004351860377937555</v>
+        <v>-0.0007477484759874642</v>
       </c>
       <c r="AG2">
-        <v>0.04107310250401497</v>
+        <v>0.04425934329628944</v>
       </c>
       <c r="AH2">
-        <v>0.1251420378684998</v>
+        <v>0.1214210242033005</v>
       </c>
       <c r="AI2">
-        <v>0.01471546944230795</v>
+        <v>0.009951001033186913</v>
       </c>
       <c r="AJ2">
-        <v>-0.004663190804421902</v>
+        <v>-0.003245366970077157</v>
       </c>
       <c r="AK2">
-        <v>-0.01949769631028175</v>
+        <v>-0.01982775330543518</v>
       </c>
       <c r="AL2">
-        <v>-0.001722757471725345</v>
+        <v>-0.009328294545412064</v>
       </c>
       <c r="AM2">
-        <v>-0.01488211750984192</v>
+        <v>-0.001737307058647275</v>
       </c>
       <c r="AN2">
-        <v>0.1079185754060745</v>
+        <v>0.1236316561698914</v>
       </c>
       <c r="AO2">
-        <v>0.01647501811385155</v>
+        <v>0.02074595913290977</v>
       </c>
       <c r="AP2">
-        <v>0.05921315029263496</v>
+        <v>0.05771111696958542</v>
       </c>
       <c r="AQ2">
-        <v>0.004144534468650818</v>
+        <v>0.0005785749526694417</v>
       </c>
       <c r="AR2">
-        <v>0.1243139207363129</v>
+        <v>0.1263317763805389</v>
       </c>
       <c r="AS2">
-        <v>-0.03450687229633331</v>
+        <v>-0.01978070661425591</v>
       </c>
       <c r="AT2">
-        <v>-0.02106889337301254</v>
+        <v>-0.01237436942756176</v>
       </c>
       <c r="AU2">
-        <v>-0.02465363219380379</v>
+        <v>-0.02291796542704105</v>
       </c>
       <c r="AV2">
-        <v>0.08107568323612213</v>
+        <v>0.08507639169692993</v>
       </c>
       <c r="AW2">
-        <v>-0.06404775381088257</v>
+        <v>-0.06513537466526031</v>
       </c>
       <c r="AX2">
-        <v>0.01830374263226986</v>
+        <v>0.02523528598248959</v>
       </c>
       <c r="AY2">
-        <v>-0.04693528637290001</v>
+        <v>-0.04679002240300179</v>
       </c>
       <c r="AZ2">
-        <v>-0.009825868532061577</v>
+        <v>-0.01656945794820786</v>
       </c>
       <c r="BA2">
-        <v>-0.05044915154576302</v>
+        <v>-0.04902175441384315</v>
       </c>
       <c r="BB2">
-        <v>0.01777719892561436</v>
+        <v>0.03200614079833031</v>
       </c>
       <c r="BC2">
-        <v>0.004756943322718143</v>
+        <v>0.002490695333108306</v>
       </c>
       <c r="BD2">
-        <v>0.005670967046171427</v>
+        <v>0.00544059881940484</v>
       </c>
       <c r="BE2">
-        <v>0.005019805859774351</v>
+        <v>-0.005060279741883278</v>
       </c>
       <c r="BF2">
-        <v>-0.02972028963267803</v>
+        <v>-0.01421781815588474</v>
       </c>
       <c r="BG2">
-        <v>-0.01509247161448002</v>
+        <v>-0.01404935214668512</v>
       </c>
       <c r="BH2">
-        <v>0.00546342832967639</v>
+        <v>0.01121712289750576</v>
       </c>
       <c r="BI2">
-        <v>0.07725901156663895</v>
+        <v>0.07700210809707642</v>
       </c>
       <c r="BJ2">
-        <v>-0.0536959320306778</v>
+        <v>-0.05136523395776749</v>
       </c>
       <c r="BK2">
-        <v>-0.001050182385370135</v>
+        <v>0.003139752894639969</v>
       </c>
       <c r="BL2">
-        <v>-0.0003475121920928359</v>
+        <v>0.0009007441694848239</v>
       </c>
       <c r="BM2">
-        <v>0.1082035005092621</v>
+        <v>0.1074739992618561</v>
       </c>
       <c r="BN2">
-        <v>-0.03444322571158409</v>
+        <v>-0.02385096624493599</v>
       </c>
       <c r="BO2">
-        <v>0.01481463201344013</v>
+        <v>0.0182565338909626</v>
       </c>
       <c r="BP2">
-        <v>0.136564239859581</v>
+        <v>0.1319372951984406</v>
       </c>
       <c r="BQ2">
-        <v>0.03750027343630791</v>
+        <v>0.03849835693836212</v>
       </c>
       <c r="BR2">
-        <v>0.002666922053322196</v>
+        <v>-0.001445065601728857</v>
       </c>
       <c r="BS2">
-        <v>-0.004797153174877167</v>
+        <v>-0.005648103076964617</v>
       </c>
       <c r="BT2">
-        <v>0.01126539893448353</v>
+        <v>0.0114275524392724</v>
       </c>
       <c r="BU2">
-        <v>-0.03806836903095245</v>
+        <v>-0.04071202129125595</v>
       </c>
       <c r="BV2">
-        <v>-0.0200128760188818</v>
+        <v>-0.01437624357640743</v>
       </c>
       <c r="BW2">
-        <v>0.01264080684632063</v>
+        <v>0.006569043267518282</v>
       </c>
       <c r="BX2">
-        <v>0.09091821312904358</v>
+        <v>0.09267217665910721</v>
       </c>
       <c r="BY2">
-        <v>-0.006930656265467405</v>
+        <v>-0.01141946949064732</v>
       </c>
       <c r="BZ2">
-        <v>-0.0057237115688622</v>
+        <v>-0.001178839709609747</v>
       </c>
       <c r="CA2">
-        <v>0.01737218908965588</v>
+        <v>0.01613486371934414</v>
       </c>
       <c r="CB2">
-        <v>-0.1288999170064926</v>
+        <v>-0.1202806085348129</v>
       </c>
       <c r="CC2">
-        <v>0.005854740738868713</v>
+        <v>0.007369609549641609</v>
       </c>
       <c r="CD2">
-        <v>0.001673761871643364</v>
+        <v>0.006402875762432814</v>
       </c>
       <c r="CE2">
-        <v>0.155459463596344</v>
+        <v>0.1611058115959167</v>
       </c>
       <c r="CF2">
-        <v>-0.02604740858078003</v>
+        <v>-0.03107885085046291</v>
       </c>
       <c r="CG2">
-        <v>0.09913328289985657</v>
+        <v>0.1009029373526573</v>
       </c>
       <c r="CH2">
-        <v>0.01524047646671534</v>
+        <v>0.01350492611527443</v>
       </c>
       <c r="CI2">
-        <v>0.01781630702316761</v>
+        <v>0.01802195981144905</v>
       </c>
       <c r="CJ2">
-        <v>0.08355958014726639</v>
+        <v>0.0767543613910675</v>
       </c>
       <c r="CK2">
-        <v>-0.02896680682897568</v>
+        <v>-0.03162719309329987</v>
       </c>
       <c r="CL2">
-        <v>0.001472570700570941</v>
+        <v>0.001893990556709468</v>
       </c>
       <c r="CM2">
-        <v>0.01293564215302467</v>
+        <v>0.01917093247175217</v>
       </c>
       <c r="CN2">
-        <v>-0.005140189081430435</v>
+        <v>-0.008766633458435535</v>
       </c>
       <c r="CO2">
-        <v>0.003042469965294003</v>
+        <v>0.002766525372862816</v>
       </c>
       <c r="CP2">
-        <v>0.0895383283495903</v>
+        <v>0.1059659346938133</v>
       </c>
       <c r="CQ2">
-        <v>-0.01164505537599325</v>
+        <v>-0.009594249539077282</v>
       </c>
       <c r="CR2">
-        <v>0.002946598688140512</v>
+        <v>0.002923709806054831</v>
       </c>
       <c r="CS2">
-        <v>-0.007658171467483044</v>
+        <v>-0.008942807093262672</v>
       </c>
       <c r="CT2">
-        <v>0.005224810913205147</v>
+        <v>0.006323843728750944</v>
       </c>
       <c r="CU2">
-        <v>0.01352664828300476</v>
+        <v>0.01945164613425732</v>
       </c>
       <c r="CV2">
-        <v>0.002290499396622181</v>
+        <v>-0.002814577659592032</v>
       </c>
       <c r="CW2">
-        <v>-0.1736625880002975</v>
+        <v>-0.175759419798851</v>
       </c>
       <c r="CX2">
-        <v>0.0007776491111144423</v>
+        <v>-0.002052022144198418</v>
       </c>
       <c r="CY2">
-        <v>0.03677765280008316</v>
+        <v>0.03586329892277718</v>
       </c>
       <c r="CZ2">
-        <v>-0.006689741741865873</v>
+        <v>-0.006107578985393047</v>
       </c>
       <c r="DA2">
-        <v>-0.07647917419672012</v>
+        <v>-0.07518989592790604</v>
       </c>
       <c r="DB2">
-        <v>-0.03510941937565804</v>
+        <v>-0.02988977171480656</v>
       </c>
       <c r="DC2">
-        <v>0.001706962240859866</v>
+        <v>-0.003437080187723041</v>
       </c>
       <c r="DD2">
-        <v>0.1495436429977417</v>
+        <v>0.147865504026413</v>
       </c>
       <c r="DE2">
-        <v>-0.001692308578640223</v>
+        <v>-0.003282026620581746</v>
       </c>
       <c r="DF2">
-        <v>0.01835153251886368</v>
+        <v>0.01854976639151573</v>
       </c>
       <c r="DG2">
-        <v>-0.007214243523776531</v>
+        <v>-0.009900282137095928</v>
       </c>
       <c r="DH2">
-        <v>-0.04777493700385094</v>
+        <v>-0.04506606236100197</v>
       </c>
       <c r="DI2">
-        <v>0.008370840921998024</v>
+        <v>0.005637878086417913</v>
       </c>
       <c r="DJ2">
-        <v>0.0266405139118433</v>
+        <v>0.02888744696974754</v>
       </c>
       <c r="DK2">
-        <v>-0.0747181624174118</v>
+        <v>-0.07660719752311707</v>
       </c>
       <c r="DL2">
-        <v>0.008016756735742092</v>
+        <v>0.01295140478760004</v>
       </c>
       <c r="DM2">
-        <v>0.06080884113907814</v>
+        <v>0.0610734298825264</v>
       </c>
       <c r="DN2">
-        <v>-0.0311115924268961</v>
+        <v>-0.03045316599309444</v>
       </c>
       <c r="DO2">
-        <v>-0.01773140393197536</v>
+        <v>-0.01346083916723728</v>
       </c>
       <c r="DP2">
-        <v>-0.002539534354582429</v>
+        <v>0.002305943518877029</v>
       </c>
       <c r="DQ2">
-        <v>-0.00369249889627099</v>
+        <v>-0.003685595467686653</v>
       </c>
       <c r="DR2">
-        <v>-0.008177531883120537</v>
+        <v>-0.01035863626748323</v>
       </c>
       <c r="DS2">
-        <v>-0.03761379793286324</v>
+        <v>-0.03580722957849503</v>
       </c>
       <c r="DT2">
-        <v>-0.05070098862051964</v>
+        <v>-0.0428670346736908</v>
       </c>
       <c r="DU2">
-        <v>0.08231092244386673</v>
+        <v>0.0842713788151741</v>
       </c>
       <c r="DV2">
-        <v>0.01284382678568363</v>
+        <v>0.004372216761112213</v>
       </c>
       <c r="DW2">
-        <v>0.004081039689481258</v>
+        <v>0.009492293000221252</v>
       </c>
       <c r="DX2">
-        <v>0.07515131682157516</v>
+        <v>0.07560607045888901</v>
       </c>
       <c r="DY2">
-        <v>0.04744190350174904</v>
+        <v>0.04071836918592453</v>
       </c>
       <c r="DZ2">
-        <v>-0.008536956273019314</v>
+        <v>0.004654025193303823</v>
       </c>
       <c r="EA2">
-        <v>0.008985771797597408</v>
+        <v>0.008705982938408852</v>
       </c>
       <c r="EB2">
-        <v>-0.04504156857728958</v>
+        <v>-0.04494673013687134</v>
       </c>
       <c r="EC2">
-        <v>0.01322912331670523</v>
+        <v>0.01223645359277725</v>
       </c>
       <c r="ED2">
-        <v>0.2324685454368591</v>
+        <v>0.2316456884145737</v>
       </c>
       <c r="EE2">
-        <v>-0.006078784819692373</v>
+        <v>-0.006025641225278378</v>
       </c>
       <c r="EF2">
-        <v>-0.01086693815886974</v>
+        <v>-0.005729272961616516</v>
       </c>
       <c r="EG2">
-        <v>-0.05889502912759781</v>
+        <v>-0.04250938072800636</v>
       </c>
       <c r="EH2">
-        <v>0.06244181841611862</v>
+        <v>0.06727126985788345</v>
       </c>
       <c r="EI2">
-        <v>-0.131183534860611</v>
+        <v>-0.1245040372014046</v>
       </c>
       <c r="EJ2">
-        <v>0.06632234901189804</v>
+        <v>0.06709129363298416</v>
       </c>
       <c r="EK2">
-        <v>0.0003268377913627774</v>
+        <v>-0.001404194976203144</v>
       </c>
       <c r="EL2">
-        <v>-0.0001937723282026127</v>
+        <v>-0.0003290694730821997</v>
       </c>
       <c r="EM2">
-        <v>0.003382697235792875</v>
+        <v>-0.001342869829386473</v>
       </c>
       <c r="EN2">
-        <v>-0.06156636402010918</v>
+        <v>-0.05668657645583153</v>
       </c>
       <c r="EO2">
-        <v>0.01974035426974297</v>
+        <v>0.01707284897565842</v>
       </c>
       <c r="EP2">
-        <v>0.07579436898231506</v>
+        <v>0.08082246780395508</v>
       </c>
       <c r="EQ2">
-        <v>0.08357955515384674</v>
+        <v>0.08622660487890244</v>
       </c>
       <c r="ER2">
-        <v>-0.002508083358407021</v>
+        <v>-0.001704277703538537</v>
       </c>
       <c r="ES2">
-        <v>0.01963169127702713</v>
+        <v>0.01270400732755661</v>
       </c>
       <c r="ET2">
-        <v>0.03423088788986206</v>
+        <v>0.0246477834880352</v>
       </c>
       <c r="EU2">
-        <v>0.02404444105923176</v>
+        <v>0.03152903541922569</v>
       </c>
       <c r="EV2">
-        <v>0.03538059815764427</v>
+        <v>0.03656497597694397</v>
       </c>
       <c r="EW2">
-        <v>0.1287099421024323</v>
+        <v>0.1239816918969154</v>
       </c>
       <c r="EX2">
-        <v>0.09912053495645523</v>
+        <v>0.09871202707290649</v>
       </c>
       <c r="EY2">
-        <v>0.01642740704119205</v>
+        <v>0.01621577702462673</v>
       </c>
       <c r="EZ2">
-        <v>-0.1819901168346405</v>
+        <v>-0.1783138662576675</v>
       </c>
       <c r="FA2">
-        <v>0.01328182127326727</v>
+        <v>0.01421853620558977</v>
       </c>
       <c r="FB2">
-        <v>-0.002780171344056726</v>
+        <v>-0.002663253806531429</v>
       </c>
       <c r="FC2">
-        <v>-0.02898460067808628</v>
+        <v>-0.02704693749547005</v>
       </c>
       <c r="FD2">
-        <v>0.005270007066428661</v>
+        <v>0.006000481080263853</v>
       </c>
       <c r="FE2">
-        <v>-0.04427795484662056</v>
+        <v>-0.04229778423905373</v>
       </c>
       <c r="FF2">
-        <v>0.04751438647508621</v>
+        <v>0.04744958132505417</v>
       </c>
       <c r="FG2">
-        <v>0.007887554354965687</v>
+        <v>0.005134963430464268</v>
       </c>
       <c r="FH2">
-        <v>-0.008061294443905354</v>
+        <v>-0.006491407752037048</v>
       </c>
       <c r="FI2">
-        <v>-0.07644157111644745</v>
+        <v>-0.07228321582078934</v>
       </c>
       <c r="FJ2">
-        <v>0.007313905283808708</v>
+        <v>0.00781084131449461</v>
       </c>
       <c r="FK2">
-        <v>0.009802106767892838</v>
+        <v>0.01634873263537884</v>
       </c>
       <c r="FL2">
-        <v>-0.004535440821200609</v>
+        <v>-0.007282247766852379</v>
       </c>
       <c r="FM2">
-        <v>-0.04820731654763222</v>
+        <v>-0.04006075114011765</v>
       </c>
       <c r="FN2">
-        <v>0.01214385963976383</v>
+        <v>0.01505318377166986</v>
       </c>
       <c r="FO2">
-        <v>-0.002501764101907611</v>
+        <v>5.89719093113672E-05</v>
       </c>
       <c r="FP2">
-        <v>0.004484703298658133</v>
+        <v>0.001172852702438831</v>
       </c>
       <c r="FQ2">
-        <v>-0.0001597560767550021</v>
+        <v>-0.0003448880161158741</v>
       </c>
       <c r="FR2">
-        <v>0.00506255030632019</v>
+        <v>0.005572306457906961</v>
       </c>
       <c r="FS2">
-        <v>-0.003231749404221773</v>
+        <v>-0.002130909124389291</v>
       </c>
       <c r="FT2">
-        <v>-0.003251511370763183</v>
+        <v>-0.002120761433616281</v>
       </c>
       <c r="FU2">
-        <v>-0.06644489616155624</v>
+        <v>-0.06734208762645721</v>
       </c>
       <c r="FV2">
-        <v>0.07054608315229416</v>
+        <v>0.06755757331848145</v>
       </c>
       <c r="FW2">
-        <v>0.05431350320577621</v>
+        <v>0.05396925657987595</v>
       </c>
       <c r="FX2">
-        <v>-0.005762829910963774</v>
+        <v>0.005500330589711666</v>
       </c>
       <c r="FY2">
-        <v>0.004471140913665295</v>
+        <v>0.00156479119323194</v>
       </c>
       <c r="FZ2">
-        <v>0.01813652366399765</v>
+        <v>0.01466121431440115</v>
       </c>
       <c r="GA2">
-        <v>0.02006054669618607</v>
+        <v>0.02491404861211777</v>
       </c>
       <c r="GB2">
-        <v>0.001582663622684777</v>
+        <v>-0.007902266457676888</v>
       </c>
       <c r="GC2">
-        <v>-0.03643776103854179</v>
+        <v>-0.03435973823070526</v>
       </c>
       <c r="GD2">
-        <v>-0.02200285159051418</v>
+        <v>-0.02112863771617413</v>
       </c>
       <c r="GE2">
-        <v>0.004630065057426691</v>
+        <v>0.004773800261318684</v>
       </c>
       <c r="GF2">
-        <v>-0.04715410992503166</v>
+        <v>-0.04868065938353539</v>
       </c>
       <c r="GG2">
-        <v>-0.08243411779403687</v>
+        <v>-0.07843329012393951</v>
       </c>
       <c r="GH2">
-        <v>-0.003839274635538459</v>
+        <v>-0.004916506353765726</v>
       </c>
       <c r="GI2">
-        <v>0.0003262061218265444</v>
+        <v>-0.003153885714709759</v>
       </c>
       <c r="GJ2">
-        <v>0.002562988316640258</v>
+        <v>-1.512250855739694E-05</v>
       </c>
       <c r="GK2">
-        <v>-0.1486270129680634</v>
+        <v>-0.1490254700183868</v>
       </c>
       <c r="GL2">
-        <v>-0.04600665718317032</v>
+        <v>-0.04749618843197823</v>
       </c>
       <c r="GM2">
-        <v>-0.02710434608161449</v>
+        <v>-0.02774705924093723</v>
       </c>
       <c r="GN2">
-        <v>0.063921719789505</v>
+        <v>0.06490220129489899</v>
       </c>
       <c r="GO2">
-        <v>0.05100641772150993</v>
+        <v>0.04440463706851006</v>
       </c>
       <c r="GP2">
-        <v>-0.03908036276698112</v>
+        <v>-0.03797779977321625</v>
       </c>
       <c r="GQ2">
-        <v>-0.008392998017370701</v>
+        <v>-0.004139287862926722</v>
       </c>
       <c r="GR2">
-        <v>-0.003069967962801456</v>
+        <v>0.002980127930641174</v>
       </c>
       <c r="GS2">
-        <v>-0.03405671194195747</v>
+        <v>-0.02911431156098843</v>
       </c>
       <c r="GT2">
-        <v>-0.003895558184012771</v>
+        <v>-0.002177607268095016</v>
       </c>
       <c r="GU2">
-        <v>0.004813286010175943</v>
+        <v>0.00313507835380733</v>
       </c>
       <c r="GV2">
-        <v>0.01268769707530737</v>
+        <v>0.01337122824043036</v>
       </c>
       <c r="GW2">
-        <v>-0.009889198467135429</v>
+        <v>-0.01446390803903341</v>
       </c>
       <c r="GX2">
-        <v>0.005496191326528788</v>
+        <v>0.006262817420065403</v>
       </c>
       <c r="GY2">
-        <v>-0.004713437985628843</v>
+        <v>-0.005022274330258369</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Financial Services.xlsx
+++ b/static/Models/Regression/Equation/Financial Services.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>0.03130657970905304</v>
+        <v>0.02774810045957565</v>
       </c>
       <c r="C2">
-        <v>0.07481084018945694</v>
+        <v>0.068294458091259</v>
       </c>
       <c r="D2">
-        <v>0.0985138788819313</v>
+        <v>0.1032715290784836</v>
       </c>
       <c r="E2">
-        <v>0.09648273140192032</v>
+        <v>0.0764874741435051</v>
       </c>
       <c r="F2">
-        <v>0.01271346863359213</v>
+        <v>0.02147893980145454</v>
       </c>
       <c r="G2">
-        <v>0.04919232428073883</v>
+        <v>0.055801622569561</v>
       </c>
       <c r="H2">
-        <v>0.02254506945610046</v>
+        <v>0.01190453581511974</v>
       </c>
       <c r="I2">
-        <v>0.001199204474687576</v>
+        <v>0.003307569772005081</v>
       </c>
       <c r="J2">
-        <v>-0.146454930305481</v>
+        <v>-0.1529512405395508</v>
       </c>
       <c r="K2">
-        <v>0.001153781544417143</v>
+        <v>0.0094800079241395</v>
       </c>
       <c r="L2">
-        <v>0.00683956453576684</v>
+        <v>0.005587266758084297</v>
       </c>
       <c r="M2">
-        <v>-0.0005187254282645881</v>
+        <v>0.00181631266605109</v>
       </c>
       <c r="N2">
-        <v>-0.001138446037657559</v>
+        <v>-0.0007569669978693128</v>
       </c>
       <c r="O2">
-        <v>0.02065719105303288</v>
+        <v>0.03668762370944023</v>
       </c>
       <c r="P2">
-        <v>0.09736360609531403</v>
+        <v>0.09195228666067123</v>
       </c>
       <c r="Q2">
-        <v>-0.05034720525145531</v>
+        <v>-0.02222682721912861</v>
       </c>
       <c r="R2">
-        <v>0.0009022237500175834</v>
+        <v>0.003813945222645998</v>
       </c>
       <c r="S2">
-        <v>0.1265615969896317</v>
+        <v>0.1302142292261124</v>
       </c>
       <c r="T2">
-        <v>-0.1607419401407242</v>
+        <v>-0.1586323231458664</v>
       </c>
       <c r="U2">
-        <v>0.07931101322174072</v>
+        <v>0.0679297149181366</v>
       </c>
       <c r="V2">
-        <v>-0.002903777873143554</v>
+        <v>-0.007492054253816605</v>
       </c>
       <c r="W2">
-        <v>-0.01451334916055202</v>
+        <v>-0.004989249166101217</v>
       </c>
       <c r="X2">
-        <v>0.0005041048862040043</v>
+        <v>0.005830136127769947</v>
       </c>
       <c r="Y2">
-        <v>0.08534563332796097</v>
+        <v>0.09217603504657745</v>
       </c>
       <c r="Z2">
-        <v>0.03899360820651054</v>
+        <v>0.04131518676877022</v>
       </c>
       <c r="AA2">
-        <v>-0.001586880767717957</v>
+        <v>-0.001620638300664723</v>
       </c>
       <c r="AB2">
-        <v>-0.02558562904596329</v>
+        <v>-0.03013727068901062</v>
       </c>
       <c r="AC2">
-        <v>0.07725085318088531</v>
+        <v>0.08409539610147476</v>
       </c>
       <c r="AD2">
-        <v>0.01016321964561939</v>
+        <v>0.0115280132740736</v>
       </c>
       <c r="AE2">
-        <v>0.02628879807889462</v>
+        <v>0.02448583766818047</v>
       </c>
       <c r="AF2">
-        <v>-0.0007477484759874642</v>
+        <v>0.006134842056781054</v>
       </c>
       <c r="AG2">
-        <v>0.04425934329628944</v>
+        <v>0.05410391464829445</v>
       </c>
       <c r="AH2">
-        <v>0.1214210242033005</v>
+        <v>0.1161775216460228</v>
       </c>
       <c r="AI2">
-        <v>0.009951001033186913</v>
+        <v>0.006613329984247684</v>
       </c>
       <c r="AJ2">
-        <v>-0.003245366970077157</v>
+        <v>-0.005058176815509796</v>
       </c>
       <c r="AK2">
-        <v>-0.01982775330543518</v>
+        <v>-0.01531628705561161</v>
       </c>
       <c r="AL2">
-        <v>-0.009328294545412064</v>
+        <v>0.005540101323276758</v>
       </c>
       <c r="AM2">
-        <v>-0.001737307058647275</v>
+        <v>-0.0007878246833570302</v>
       </c>
       <c r="AN2">
-        <v>0.1236316561698914</v>
+        <v>0.1064087972044945</v>
       </c>
       <c r="AO2">
-        <v>0.02074595913290977</v>
+        <v>0.0260780081152916</v>
       </c>
       <c r="AP2">
-        <v>0.05771111696958542</v>
+        <v>0.05131792277097702</v>
       </c>
       <c r="AQ2">
-        <v>0.0005785749526694417</v>
+        <v>0.008783076889812946</v>
       </c>
       <c r="AR2">
-        <v>0.1263317763805389</v>
+        <v>0.1376094818115234</v>
       </c>
       <c r="AS2">
-        <v>-0.01978070661425591</v>
+        <v>-0.03313134983181953</v>
       </c>
       <c r="AT2">
-        <v>-0.01237436942756176</v>
+        <v>-0.006905809976160526</v>
       </c>
       <c r="AU2">
-        <v>-0.02291796542704105</v>
+        <v>-0.01920156180858612</v>
       </c>
       <c r="AV2">
-        <v>0.08507639169692993</v>
+        <v>0.08690731227397919</v>
       </c>
       <c r="AW2">
-        <v>-0.06513537466526031</v>
+        <v>-0.06397431343793869</v>
       </c>
       <c r="AX2">
-        <v>0.02523528598248959</v>
+        <v>0.03333636373281479</v>
       </c>
       <c r="AY2">
-        <v>-0.04679002240300179</v>
+        <v>-0.04417086765170097</v>
       </c>
       <c r="AZ2">
-        <v>-0.01656945794820786</v>
+        <v>-0.02603641711175442</v>
       </c>
       <c r="BA2">
-        <v>-0.04902175441384315</v>
+        <v>-0.04003390297293663</v>
       </c>
       <c r="BB2">
-        <v>0.03200614079833031</v>
+        <v>0.0354168526828289</v>
       </c>
       <c r="BC2">
-        <v>0.002490695333108306</v>
+        <v>0.00966561958193779</v>
       </c>
       <c r="BD2">
-        <v>0.00544059881940484</v>
+        <v>0.007118596695363522</v>
       </c>
       <c r="BE2">
-        <v>-0.005060279741883278</v>
+        <v>-0.00682139815762639</v>
       </c>
       <c r="BF2">
-        <v>-0.01421781815588474</v>
+        <v>-0.01698343642055988</v>
       </c>
       <c r="BG2">
-        <v>-0.01404935214668512</v>
+        <v>-0.01347288209944963</v>
       </c>
       <c r="BH2">
-        <v>0.01121712289750576</v>
+        <v>0.01336098369210958</v>
       </c>
       <c r="BI2">
-        <v>0.07700210809707642</v>
+        <v>0.08084102720022202</v>
       </c>
       <c r="BJ2">
-        <v>-0.05136523395776749</v>
+        <v>-0.05540367960929871</v>
       </c>
       <c r="BK2">
-        <v>0.003139752894639969</v>
+        <v>-0.0100091090425849</v>
       </c>
       <c r="BL2">
-        <v>0.0009007441694848239</v>
+        <v>-0.005109477788209915</v>
       </c>
       <c r="BM2">
-        <v>0.1074739992618561</v>
+        <v>0.09778681397438049</v>
       </c>
       <c r="BN2">
-        <v>-0.02385096624493599</v>
+        <v>-0.01659132912755013</v>
       </c>
       <c r="BO2">
-        <v>0.0182565338909626</v>
+        <v>0.02282154187560081</v>
       </c>
       <c r="BP2">
-        <v>0.1319372951984406</v>
+        <v>0.1162159740924835</v>
       </c>
       <c r="BQ2">
-        <v>0.03849835693836212</v>
+        <v>0.04641178250312805</v>
       </c>
       <c r="BR2">
-        <v>-0.001445065601728857</v>
+        <v>0.004750004503875971</v>
       </c>
       <c r="BS2">
-        <v>-0.005648103076964617</v>
+        <v>-9.892844536807388E-05</v>
       </c>
       <c r="BT2">
-        <v>0.0114275524392724</v>
+        <v>0.01206929329782724</v>
       </c>
       <c r="BU2">
-        <v>-0.04071202129125595</v>
+        <v>-0.04616654291749001</v>
       </c>
       <c r="BV2">
-        <v>-0.01437624357640743</v>
+        <v>-0.009893471375107765</v>
       </c>
       <c r="BW2">
-        <v>0.006569043267518282</v>
+        <v>0.001853727153502405</v>
       </c>
       <c r="BX2">
-        <v>0.09267217665910721</v>
+        <v>0.0875445231795311</v>
       </c>
       <c r="BY2">
-        <v>-0.01141946949064732</v>
+        <v>0.002581185195595026</v>
       </c>
       <c r="BZ2">
-        <v>-0.001178839709609747</v>
+        <v>-0.008475800976157188</v>
       </c>
       <c r="CA2">
-        <v>0.01613486371934414</v>
+        <v>0.01487631816416979</v>
       </c>
       <c r="CB2">
-        <v>-0.1202806085348129</v>
+        <v>-0.1206665635108948</v>
       </c>
       <c r="CC2">
-        <v>0.007369609549641609</v>
+        <v>0.006137682590633631</v>
       </c>
       <c r="CD2">
-        <v>0.006402875762432814</v>
+        <v>-0.0001511034352006391</v>
       </c>
       <c r="CE2">
-        <v>0.1611058115959167</v>
+        <v>0.1649699211120605</v>
       </c>
       <c r="CF2">
-        <v>-0.03107885085046291</v>
+        <v>-0.03421690687537193</v>
       </c>
       <c r="CG2">
-        <v>0.1009029373526573</v>
+        <v>0.09774127602577209</v>
       </c>
       <c r="CH2">
-        <v>0.01350492611527443</v>
+        <v>0.01591166295111179</v>
       </c>
       <c r="CI2">
-        <v>0.01802195981144905</v>
+        <v>0.01971014402806759</v>
       </c>
       <c r="CJ2">
-        <v>0.0767543613910675</v>
+        <v>0.07375413924455643</v>
       </c>
       <c r="CK2">
-        <v>-0.03162719309329987</v>
+        <v>-0.03324954956769943</v>
       </c>
       <c r="CL2">
-        <v>0.001893990556709468</v>
+        <v>0.003046870231628418</v>
       </c>
       <c r="CM2">
-        <v>0.01917093247175217</v>
+        <v>0.01572379842400551</v>
       </c>
       <c r="CN2">
-        <v>-0.008766633458435535</v>
+        <v>0.003229055553674698</v>
       </c>
       <c r="CO2">
-        <v>0.002766525372862816</v>
+        <v>0.00194060243666172</v>
       </c>
       <c r="CP2">
-        <v>0.1059659346938133</v>
+        <v>0.1101878732442856</v>
       </c>
       <c r="CQ2">
-        <v>-0.009594249539077282</v>
+        <v>0.01024056412279606</v>
       </c>
       <c r="CR2">
-        <v>0.002923709806054831</v>
+        <v>-0.001947183511219919</v>
       </c>
       <c r="CS2">
-        <v>-0.008942807093262672</v>
+        <v>-0.008647908456623554</v>
       </c>
       <c r="CT2">
-        <v>0.006323843728750944</v>
+        <v>0.005167525261640549</v>
       </c>
       <c r="CU2">
-        <v>0.01945164613425732</v>
+        <v>0.01247055269777775</v>
       </c>
       <c r="CV2">
-        <v>-0.002814577659592032</v>
+        <v>0.0002719317562878132</v>
       </c>
       <c r="CW2">
-        <v>-0.175759419798851</v>
+        <v>-0.1717561781406403</v>
       </c>
       <c r="CX2">
-        <v>-0.002052022144198418</v>
+        <v>0.01521178800612688</v>
       </c>
       <c r="CY2">
-        <v>0.03586329892277718</v>
+        <v>0.03791315853595734</v>
       </c>
       <c r="CZ2">
-        <v>-0.006107578985393047</v>
+        <v>-0.01091453991830349</v>
       </c>
       <c r="DA2">
-        <v>-0.07518989592790604</v>
+        <v>-0.06606182456016541</v>
       </c>
       <c r="DB2">
-        <v>-0.02988977171480656</v>
+        <v>-0.03173383697867393</v>
       </c>
       <c r="DC2">
-        <v>-0.003437080187723041</v>
+        <v>0.003746913513168693</v>
       </c>
       <c r="DD2">
-        <v>0.147865504026413</v>
+        <v>0.1390098035335541</v>
       </c>
       <c r="DE2">
-        <v>-0.003282026620581746</v>
+        <v>-0.002117642434313893</v>
       </c>
       <c r="DF2">
-        <v>0.01854976639151573</v>
+        <v>0.01061077322810888</v>
       </c>
       <c r="DG2">
-        <v>-0.009900282137095928</v>
+        <v>-0.007793144322931767</v>
       </c>
       <c r="DH2">
-        <v>-0.04506606236100197</v>
+        <v>-0.04916806519031525</v>
       </c>
       <c r="DI2">
-        <v>0.005637878086417913</v>
+        <v>-0.001674950472079217</v>
       </c>
       <c r="DJ2">
-        <v>0.02888744696974754</v>
+        <v>0.02800256572663784</v>
       </c>
       <c r="DK2">
-        <v>-0.07660719752311707</v>
+        <v>-0.08966171741485596</v>
       </c>
       <c r="DL2">
-        <v>0.01295140478760004</v>
+        <v>0.01336459442973137</v>
       </c>
       <c r="DM2">
-        <v>0.0610734298825264</v>
+        <v>0.07017106562852859</v>
       </c>
       <c r="DN2">
-        <v>-0.03045316599309444</v>
+        <v>-0.03047805093228817</v>
       </c>
       <c r="DO2">
-        <v>-0.01346083916723728</v>
+        <v>-0.01618348993360996</v>
       </c>
       <c r="DP2">
-        <v>0.002305943518877029</v>
+        <v>0.001570303342305124</v>
       </c>
       <c r="DQ2">
-        <v>-0.003685595467686653</v>
+        <v>-0.002475406043231487</v>
       </c>
       <c r="DR2">
-        <v>-0.01035863626748323</v>
+        <v>-0.004567180294543505</v>
       </c>
       <c r="DS2">
-        <v>-0.03580722957849503</v>
+        <v>-0.03602849692106247</v>
       </c>
       <c r="DT2">
-        <v>-0.0428670346736908</v>
+        <v>-0.02765453420579433</v>
       </c>
       <c r="DU2">
-        <v>0.0842713788151741</v>
+        <v>0.09160261601209641</v>
       </c>
       <c r="DV2">
-        <v>0.004372216761112213</v>
+        <v>-0.001145379268564284</v>
       </c>
       <c r="DW2">
-        <v>0.009492293000221252</v>
+        <v>-0.001809908892028034</v>
       </c>
       <c r="DX2">
-        <v>0.07560607045888901</v>
+        <v>0.0741952657699585</v>
       </c>
       <c r="DY2">
-        <v>0.04071836918592453</v>
+        <v>0.04558642208576202</v>
       </c>
       <c r="DZ2">
-        <v>0.004654025193303823</v>
+        <v>0.008599073626101017</v>
       </c>
       <c r="EA2">
-        <v>0.008705982938408852</v>
+        <v>0.01143168658018112</v>
       </c>
       <c r="EB2">
-        <v>-0.04494673013687134</v>
+        <v>-0.04338731616735458</v>
       </c>
       <c r="EC2">
-        <v>0.01223645359277725</v>
+        <v>0.008936588652431965</v>
       </c>
       <c r="ED2">
-        <v>0.2316456884145737</v>
+        <v>0.2338700443506241</v>
       </c>
       <c r="EE2">
-        <v>-0.006025641225278378</v>
+        <v>-0.005166925489902496</v>
       </c>
       <c r="EF2">
-        <v>-0.005729272961616516</v>
+        <v>-0.01671491004526615</v>
       </c>
       <c r="EG2">
-        <v>-0.04250938072800636</v>
+        <v>-0.04089956358075142</v>
       </c>
       <c r="EH2">
-        <v>0.06727126985788345</v>
+        <v>0.05262819677591324</v>
       </c>
       <c r="EI2">
-        <v>-0.1245040372014046</v>
+        <v>-0.1302856653928757</v>
       </c>
       <c r="EJ2">
-        <v>0.06709129363298416</v>
+        <v>0.06726109981536865</v>
       </c>
       <c r="EK2">
-        <v>-0.001404194976203144</v>
+        <v>0.001110788085497916</v>
       </c>
       <c r="EL2">
-        <v>-0.0003290694730821997</v>
+        <v>0.00169021962210536</v>
       </c>
       <c r="EM2">
-        <v>-0.001342869829386473</v>
+        <v>-0.01793599128723145</v>
       </c>
       <c r="EN2">
-        <v>-0.05668657645583153</v>
+        <v>-0.06262262910604477</v>
       </c>
       <c r="EO2">
-        <v>0.01707284897565842</v>
+        <v>0.01645880751311779</v>
       </c>
       <c r="EP2">
-        <v>0.08082246780395508</v>
+        <v>0.06803770363330841</v>
       </c>
       <c r="EQ2">
-        <v>0.08622660487890244</v>
+        <v>0.08484514057636261</v>
       </c>
       <c r="ER2">
-        <v>-0.001704277703538537</v>
+        <v>-0.004969054367393255</v>
       </c>
       <c r="ES2">
-        <v>0.01270400732755661</v>
+        <v>0.01792103238403797</v>
       </c>
       <c r="ET2">
-        <v>0.0246477834880352</v>
+        <v>0.03208456933498383</v>
       </c>
       <c r="EU2">
-        <v>0.03152903541922569</v>
+        <v>0.02780400775372982</v>
       </c>
       <c r="EV2">
-        <v>0.03656497597694397</v>
+        <v>0.05605531111359596</v>
       </c>
       <c r="EW2">
-        <v>0.1239816918969154</v>
+        <v>0.1342447698116302</v>
       </c>
       <c r="EX2">
-        <v>0.09871202707290649</v>
+        <v>0.1120415255427361</v>
       </c>
       <c r="EY2">
-        <v>0.01621577702462673</v>
+        <v>0.01299281790852547</v>
       </c>
       <c r="EZ2">
-        <v>-0.1783138662576675</v>
+        <v>-0.1736133694648743</v>
       </c>
       <c r="FA2">
-        <v>0.01421853620558977</v>
+        <v>0.002895423909649253</v>
       </c>
       <c r="FB2">
-        <v>-0.002663253806531429</v>
+        <v>-0.0008182163001038134</v>
       </c>
       <c r="FC2">
-        <v>-0.02704693749547005</v>
+        <v>-0.03996137157082558</v>
       </c>
       <c r="FD2">
-        <v>0.006000481080263853</v>
+        <v>0.001644871430471539</v>
       </c>
       <c r="FE2">
-        <v>-0.04229778423905373</v>
+        <v>-0.04666005447506905</v>
       </c>
       <c r="FF2">
-        <v>0.04744958132505417</v>
+        <v>0.04379941150546074</v>
       </c>
       <c r="FG2">
-        <v>0.005134963430464268</v>
+        <v>0.001866207341663539</v>
       </c>
       <c r="FH2">
-        <v>-0.006491407752037048</v>
+        <v>-0.007260738871991634</v>
       </c>
       <c r="FI2">
-        <v>-0.07228321582078934</v>
+        <v>-0.06941720098257065</v>
       </c>
       <c r="FJ2">
-        <v>0.00781084131449461</v>
+        <v>0.001362386508844793</v>
       </c>
       <c r="FK2">
-        <v>0.01634873263537884</v>
+        <v>0.01584332063794136</v>
       </c>
       <c r="FL2">
-        <v>-0.007282247766852379</v>
+        <v>-0.02691202983260155</v>
       </c>
       <c r="FM2">
-        <v>-0.04006075114011765</v>
+        <v>-0.05873490124940872</v>
       </c>
       <c r="FN2">
-        <v>0.01505318377166986</v>
+        <v>0.008733272552490234</v>
       </c>
       <c r="FO2">
-        <v>5.89719093113672E-05</v>
+        <v>0.001878652721643448</v>
       </c>
       <c r="FP2">
-        <v>0.001172852702438831</v>
+        <v>-0.001315067172981799</v>
       </c>
       <c r="FQ2">
-        <v>-0.0003448880161158741</v>
+        <v>-0.0004626220907084644</v>
       </c>
       <c r="FR2">
-        <v>0.005572306457906961</v>
+        <v>0.007030196022242308</v>
       </c>
       <c r="FS2">
-        <v>-0.002130909124389291</v>
+        <v>-0.002880008658394217</v>
       </c>
       <c r="FT2">
-        <v>-0.002120761433616281</v>
+        <v>-0.003133212914690375</v>
       </c>
       <c r="FU2">
-        <v>-0.06734208762645721</v>
+        <v>-0.06522182375192642</v>
       </c>
       <c r="FV2">
-        <v>0.06755757331848145</v>
+        <v>0.06214737892150879</v>
       </c>
       <c r="FW2">
-        <v>0.05396925657987595</v>
+        <v>0.05858208984136581</v>
       </c>
       <c r="FX2">
-        <v>0.005500330589711666</v>
+        <v>0.006720964331179857</v>
       </c>
       <c r="FY2">
-        <v>0.00156479119323194</v>
+        <v>0.0002187472127843648</v>
       </c>
       <c r="FZ2">
-        <v>0.01466121431440115</v>
+        <v>0.0001429823751095682</v>
       </c>
       <c r="GA2">
-        <v>0.02491404861211777</v>
+        <v>0.02871712483465672</v>
       </c>
       <c r="GB2">
-        <v>-0.007902266457676888</v>
+        <v>-0.006265070755034685</v>
       </c>
       <c r="GC2">
-        <v>-0.03435973823070526</v>
+        <v>-0.03746897727251053</v>
       </c>
       <c r="GD2">
-        <v>-0.02112863771617413</v>
+        <v>-0.008732111193239689</v>
       </c>
       <c r="GE2">
-        <v>0.004773800261318684</v>
+        <v>0.006893777754157782</v>
       </c>
       <c r="GF2">
-        <v>-0.04868065938353539</v>
+        <v>-0.0523967556655407</v>
       </c>
       <c r="GG2">
-        <v>-0.07843329012393951</v>
+        <v>-0.09106788784265518</v>
       </c>
       <c r="GH2">
-        <v>-0.004916506353765726</v>
+        <v>-0.004262879025191069</v>
       </c>
       <c r="GI2">
-        <v>-0.003153885714709759</v>
+        <v>-0.01450310181826353</v>
       </c>
       <c r="GJ2">
-        <v>-1.512250855739694E-05</v>
+        <v>0.007018842734396458</v>
       </c>
       <c r="GK2">
-        <v>-0.1490254700183868</v>
+        <v>-0.1388574242591858</v>
       </c>
       <c r="GL2">
-        <v>-0.04749618843197823</v>
+        <v>-0.05830826982855797</v>
       </c>
       <c r="GM2">
-        <v>-0.02774705924093723</v>
+        <v>-0.01378902327269316</v>
       </c>
       <c r="GN2">
-        <v>0.06490220129489899</v>
+        <v>0.04590335860848427</v>
       </c>
       <c r="GO2">
-        <v>0.04440463706851006</v>
+        <v>0.0590323880314827</v>
       </c>
       <c r="GP2">
-        <v>-0.03797779977321625</v>
+        <v>-0.03724399581551552</v>
       </c>
       <c r="GQ2">
-        <v>-0.004139287862926722</v>
+        <v>-0.0006108599482104182</v>
       </c>
       <c r="GR2">
-        <v>0.002980127930641174</v>
+        <v>-0.006723929662257433</v>
       </c>
       <c r="GS2">
-        <v>-0.02911431156098843</v>
+        <v>-0.02405819110572338</v>
       </c>
       <c r="GT2">
-        <v>-0.002177607268095016</v>
+        <v>-0.002312147058546543</v>
       </c>
       <c r="GU2">
-        <v>0.00313507835380733</v>
+        <v>0.005579389631748199</v>
       </c>
       <c r="GV2">
-        <v>0.01337122824043036</v>
+        <v>0.009132632985711098</v>
       </c>
       <c r="GW2">
-        <v>-0.01446390803903341</v>
+        <v>-0.0252899844199419</v>
       </c>
       <c r="GX2">
-        <v>0.006262817420065403</v>
+        <v>0.004806805402040482</v>
       </c>
       <c r="GY2">
-        <v>-0.005022274330258369</v>
+        <v>-0.003503161482512951</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Financial Services.xlsx
+++ b/static/Models/Regression/Equation/Financial Services.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02771477028727531</v>
+        <v>0.0345577597618103</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06818211823701859</v>
+        <v>0.0740206241607666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1146179512143135</v>
+        <v>0.1202395856380463</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06451153755187988</v>
+        <v>0.0591348260641098</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01409157179296017</v>
+        <v>0.01955346018075943</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04647814482450485</v>
+        <v>0.04510612040758133</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01998442411422729</v>
+        <v>0.01461898908019066</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0009650527499616146</v>
+        <v>0.003924709279090166</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1516341418027878</v>
+        <v>-0.1453433930873871</v>
       </c>
       <c r="K2" t="n">
-        <v>0.009875496849417686</v>
+        <v>0.01131226122379303</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004561660811305046</v>
+        <v>0.00850067101418972</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002044398104771972</v>
+        <v>0.009196722880005836</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002472769701853395</v>
+        <v>0.006678203586488962</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0397929772734642</v>
+        <v>0.04413429647684097</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09375258535146713</v>
+        <v>0.09021278470754623</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.02504782564938068</v>
+        <v>-0.02403555624186993</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01339105609804392</v>
+        <v>0.01109697669744492</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1310332268476486</v>
+        <v>0.1255100071430206</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.1585862934589386</v>
+        <v>-0.1636911630630493</v>
       </c>
       <c r="U2" t="n">
-        <v>0.06595214456319809</v>
+        <v>0.07662849128246307</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.009627342224121094</v>
+        <v>-0.008587955497205257</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.01737704873085022</v>
+        <v>-0.01131150871515274</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.003641544142737985</v>
+        <v>-2.829910954460502e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0891018807888031</v>
+        <v>0.09281288087368011</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.03023528307676315</v>
+        <v>0.03419266641139984</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.002220786409452558</v>
+        <v>0.00154442701023072</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.02196801081299782</v>
+        <v>-0.02748074196279049</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.07947801798582077</v>
+        <v>0.07937902957201004</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.01060641091316938</v>
+        <v>0.00537261413410306</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.03817211091518402</v>
+        <v>0.0308234840631485</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.002619697246700525</v>
+        <v>0.0003916235291399062</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.05277509614825249</v>
+        <v>0.04391767084598541</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1215129420161247</v>
+        <v>0.1231825351715088</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.003805447602644563</v>
+        <v>0.01195299904793501</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.01052851695567369</v>
+        <v>-0.01795734465122223</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.01634828560054302</v>
+        <v>-0.0125783197581768</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.003249948145821691</v>
+        <v>-0.005430552177131176</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.003868137486279011</v>
+        <v>0.009848246350884438</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1127665117383003</v>
+        <v>0.1074841618537903</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.03666634485125542</v>
+        <v>0.04071811586618423</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.05405756086111069</v>
+        <v>0.05830715224146843</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.00625941064208746</v>
+        <v>0.007144590374082327</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.1338495165109634</v>
+        <v>0.1234157979488373</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.02643478102982044</v>
+        <v>-0.0299184788018465</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.005956160370260477</v>
+        <v>0.01967077143490314</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.02036862634122372</v>
+        <v>-0.02578025497496128</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.09064086526632309</v>
+        <v>0.0850648358464241</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.06554698944091797</v>
+        <v>-0.07153517752885818</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.03666165098547935</v>
+        <v>0.032649926841259</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.04911339655518532</v>
+        <v>-0.04206199944019318</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.02238048054277897</v>
+        <v>-0.019040422514081</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.03920849785208702</v>
+        <v>-0.0317121259868145</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.03540004417300224</v>
+        <v>0.03126634284853935</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.005222280509769917</v>
+        <v>0.001128692063502967</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.006611183285713196</v>
+        <v>0.001887810532934964</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.004005704540759325</v>
+        <v>-0.007780674379318953</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.01505117863416672</v>
+        <v>-0.01969576440751553</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.01408329419791698</v>
+        <v>-0.0165872722864151</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.008670349605381489</v>
+        <v>0.005943543743342161</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.08159228414297104</v>
+        <v>0.07636705040931702</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.04462072625756264</v>
+        <v>-0.04619789123535156</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.007582202553749084</v>
+        <v>0.000214174942811951</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.005814492236822844</v>
+        <v>0.001325123244896531</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.1033859774470329</v>
+        <v>0.108543872833252</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.0123885115608573</v>
+        <v>-0.006367082241922617</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.01514782663434744</v>
+        <v>0.0203553382307291</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.1177191957831383</v>
+        <v>0.1156103312969208</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.04159273579716682</v>
+        <v>0.02427082695066929</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.003481227206066251</v>
+        <v>0.0001620283583179116</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.0009928165236487985</v>
+        <v>0.00523102143779397</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0101661765947938</v>
+        <v>0.01354222744703293</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.04659092426300049</v>
+        <v>-0.04503481462597847</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.01839869096875191</v>
+        <v>-0.02114260941743851</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0008765067323110998</v>
+        <v>0.004622376058250666</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.08837467432022095</v>
+        <v>0.09506916254758835</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.008016559295356274</v>
+        <v>-0.004674876108765602</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.003730171825736761</v>
+        <v>0.002727050567045808</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.01139563880860806</v>
+        <v>0.006298959720879793</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.1131093204021454</v>
+        <v>-0.1221932768821716</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.005504805129021406</v>
+        <v>0.009512946009635925</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.00447109853848815</v>
+        <v>0.009800915606319904</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.1737854033708572</v>
+        <v>0.1769063621759415</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.03047703206539154</v>
+        <v>-0.02521218359470367</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.09265848249197006</v>
+        <v>0.09340833872556686</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.01186808943748474</v>
+        <v>0.0221396554261446</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.01887418329715729</v>
+        <v>0.01525457482784986</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.05802091211080551</v>
+        <v>0.0690971314907074</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.03476671501994133</v>
+        <v>-0.03197494521737099</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.002244835020974278</v>
+        <v>0.007225839886814356</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.01893913373351097</v>
+        <v>0.02183125726878643</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.003997921012341976</v>
+        <v>-0.003926570527255535</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.001562184537760913</v>
+        <v>0.00693666422739625</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.1103058010339737</v>
+        <v>0.1119005605578423</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.01220552530139685</v>
+        <v>0.01963222213089466</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.002211618004366755</v>
+        <v>0.003877975977957249</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.01040531322360039</v>
+        <v>-0.009891183115541935</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.004351206123828888</v>
+        <v>0.007888143882155418</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.01561085227876902</v>
+        <v>0.01039529871195555</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.006986924447119236</v>
+        <v>0.01438641827553511</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.1620544344186783</v>
+        <v>-0.1560760736465454</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.01096814498305321</v>
+        <v>0.01523477118462324</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.03756695613265038</v>
+        <v>0.03299639001488686</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.007871063426136971</v>
+        <v>-0.003373770043253899</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.07880260795354843</v>
+        <v>-0.08356902748346329</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.02276419661939144</v>
+        <v>-0.02414019219577312</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.003919480834156275</v>
+        <v>0.006771659012883902</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.1416638046503067</v>
+        <v>0.1494023203849792</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.002337997779250145</v>
+        <v>-0.002399026649072766</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.01368011441081762</v>
+        <v>0.02091090567409992</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.01109959371387959</v>
+        <v>-0.01802039332687855</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.06076361611485481</v>
+        <v>-0.05633729696273804</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.008696870878338814</v>
+        <v>0.01297861710190773</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.03835700079798698</v>
+        <v>0.04352210462093353</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.1003110706806183</v>
+        <v>-0.09464231133460999</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.01858924888074398</v>
+        <v>0.0139993391931057</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.08164705336093903</v>
+        <v>0.08985012769699097</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.03112970851361752</v>
+        <v>-0.03375779464840889</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.01556765101850033</v>
+        <v>-0.01832260191440582</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.001803610590286553</v>
+        <v>0.007902612909674644</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.002378156641498208</v>
+        <v>0.0007432230631820858</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.004436823539435863</v>
+        <v>-0.0001781776227289811</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.0413215309381485</v>
+        <v>-0.03656613826751709</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.02200877293944359</v>
+        <v>-0.01579822972416878</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.09845336526632309</v>
+        <v>0.1042291224002838</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.004554710816591978</v>
+        <v>-0.002599423052743077</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.008151290006935596</v>
+        <v>0.004422274883836508</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.07350355386734009</v>
+        <v>0.07352054119110107</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.03402012959122658</v>
+        <v>0.04422276839613914</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.008254579268395901</v>
+        <v>0.00240641669370234</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.0005588098429143429</v>
+        <v>0.008005361072719097</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.04386920109391212</v>
+        <v>-0.043463084846735</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00568600045517087</v>
+        <v>0.003717839950695634</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.2342248260974884</v>
+        <v>0.2294751554727554</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.007210340350866318</v>
+        <v>-0.009075889363884926</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.01351182162761688</v>
+        <v>-0.005765913054347038</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.03396588936448097</v>
+        <v>-0.04074735939502716</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.05320603400468826</v>
+        <v>0.0643848329782486</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.125987634062767</v>
+        <v>-0.1197722628712654</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.06235567852854729</v>
+        <v>0.04744996130466461</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0007348439539782703</v>
+        <v>0.002040287712588906</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.00162346928846091</v>
+        <v>0.001560938195325434</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.02259706519544125</v>
+        <v>-0.02977645583450794</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.056134432554245</v>
+        <v>-0.05198086053133011</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.01100642420351505</v>
+        <v>0.002614793600514531</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.06056313961744308</v>
+        <v>0.06614247709512711</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.07745969295501709</v>
+        <v>0.07756622135639191</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.001701544038951397</v>
+        <v>0.006259341724216938</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02474365942180157</v>
+        <v>0.02390570752322674</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.03455526381731033</v>
+        <v>0.03006781078875065</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02495938539505005</v>
+        <v>0.02908233925700188</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.06298411637544632</v>
+        <v>0.06864326447248459</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.1233483552932739</v>
+        <v>0.1299465298652649</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.1024887636303902</v>
+        <v>0.1099379658699036</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.01385895442217588</v>
+        <v>0.01245867926627398</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.1684324741363525</v>
+        <v>-0.1601713895797729</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.006340082734823227</v>
+        <v>-0.0005565432948060334</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.0003449255600571632</v>
+        <v>0.001223134924657643</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.05138297751545906</v>
+        <v>-0.04697303101420403</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.004123209975659847</v>
+        <v>0.008183651603758335</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.05227306112647057</v>
+        <v>-0.04791011288762093</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.04807058349251747</v>
+        <v>0.05251960083842278</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.001445291214622557</v>
+        <v>0.001319742994382977</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.005921822972595692</v>
+        <v>-0.01069485768675804</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.07109744101762772</v>
+        <v>-0.06572690606117249</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.009711633436381817</v>
+        <v>0.0192245077341795</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.004785093944519758</v>
+        <v>-0.001138722873292863</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.02594215609133244</v>
+        <v>-0.0297562163323164</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0.06619206070899963</v>
+        <v>-0.07148763537406921</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.007524221669882536</v>
+        <v>0.01392938010394573</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.003017011098563671</v>
+        <v>0.01176392938941717</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.008797573857009411</v>
+        <v>-0.001794305979274213</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.0006582126370631158</v>
+        <v>-0.001209705020301044</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.00759199308231473</v>
+        <v>0.0110933780670166</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.004071785137057304</v>
+        <v>-0.0002710425178520381</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.00479099340736866</v>
+        <v>-0.002640970284119248</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.06447487324476242</v>
+        <v>-0.07056207209825516</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.05996391549706459</v>
+        <v>0.06227109953761101</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.05762346088886261</v>
+        <v>0.05308258906006813</v>
       </c>
       <c r="FX2" t="n">
-        <v>5.676647560903803e-05</v>
+        <v>-0.005068662576377392</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0006822616560384631</v>
+        <v>0.006413662806153297</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.006823376752436161</v>
+        <v>-0.004454350098967552</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0276557132601738</v>
+        <v>0.01984462141990662</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.003121195826679468</v>
+        <v>-0.0005554097006097436</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.04621033743023872</v>
+        <v>-0.06437119096517563</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.01124990079551935</v>
+        <v>-0.01338406931608915</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.006599098443984985</v>
+        <v>0.005984233692288399</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.0478544794023037</v>
+        <v>-0.04084610193967819</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.09639951586723328</v>
+        <v>-0.08670001477003098</v>
       </c>
       <c r="GH2" t="n">
-        <v>8.746679668547586e-05</v>
+        <v>0.007836593315005302</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.006892571225762367</v>
+        <v>-0.01205753162503242</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.001180445309728384</v>
+        <v>-0.005809671245515347</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.1446931213140488</v>
+        <v>-0.148084819316864</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.07147079706192017</v>
+        <v>-0.07375269383192062</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.01520003285259008</v>
+        <v>-0.01493558939546347</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.05144897848367691</v>
+        <v>0.05869342759251595</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.06548098474740982</v>
+        <v>0.07184684276580811</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.03798725455999374</v>
+        <v>-0.03534357622265816</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.004349419381469488</v>
+        <v>0.0003418993437662721</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.005093244835734367</v>
+        <v>-0.002477954374626279</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.02407176420092583</v>
+        <v>-0.02819822728633881</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.003675874089822173</v>
+        <v>0.006477988325059414</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.004074238706380129</v>
+        <v>-0.001584204030223191</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.009759032167494297</v>
+        <v>0.01126922387629747</v>
       </c>
       <c r="GW2" t="n">
-        <v>-0.02132064662873745</v>
+        <v>-0.02442334406077862</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.00555408513173461</v>
+        <v>0.002617992227897048</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.004488595761358738</v>
+        <v>-0.009841666556894779</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Regression/Equation/Financial Services.xlsx
+++ b/static/Models/Regression/Equation/Financial Services.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0345577597618103</v>
+        <v>0.02537774667143822</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0740206241607666</v>
+        <v>0.06212637200951576</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1202395856380463</v>
+        <v>0.1273119002580643</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0591348260641098</v>
+        <v>0.04216156899929047</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01955346018075943</v>
+        <v>0.01186314597725868</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04510612040758133</v>
+        <v>0.02726900391280651</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01461898908019066</v>
+        <v>0.01422307174652815</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003924709279090166</v>
+        <v>0.003796412143856287</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1453433930873871</v>
+        <v>-0.1544506251811981</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01131226122379303</v>
+        <v>0.01043516118079424</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00850067101418972</v>
+        <v>-0.003229553811252117</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009196722880005836</v>
+        <v>0.005779197439551353</v>
       </c>
       <c r="N2" t="n">
-        <v>0.006678203586488962</v>
+        <v>0.0002192300744354725</v>
       </c>
       <c r="O2" t="n">
-        <v>0.04413429647684097</v>
+        <v>0.03890606760978699</v>
       </c>
       <c r="P2" t="n">
-        <v>0.09021278470754623</v>
+        <v>0.09049651026725769</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.02403555624186993</v>
+        <v>-0.03323963657021523</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01109697669744492</v>
+        <v>0.00355541636236012</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1255100071430206</v>
+        <v>0.1101886779069901</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.1636911630630493</v>
+        <v>-0.1577062457799911</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07662849128246307</v>
+        <v>0.07921469956636429</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.008587955497205257</v>
+        <v>0.004285916220396757</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.01131150871515274</v>
+        <v>0.002757307374849916</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.829910954460502e-06</v>
+        <v>0.001480146893300116</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.09281288087368011</v>
+        <v>0.08128253370523453</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.03419266641139984</v>
+        <v>0.02947932854294777</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.00154442701023072</v>
+        <v>-0.005103756207972765</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.02748074196279049</v>
+        <v>-0.03820689767599106</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.07937902957201004</v>
+        <v>0.08414413034915924</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.00537261413410306</v>
+        <v>0.007580773439258337</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0308234840631485</v>
+        <v>0.01832033134996891</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0003916235291399062</v>
+        <v>0.00690111517906189</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.04391767084598541</v>
+        <v>0.03366122394800186</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.1231825351715088</v>
+        <v>0.1092258915305138</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.01195299904793501</v>
+        <v>0.02090468257665634</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.01795734465122223</v>
+        <v>-0.001575642847456038</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.0125783197581768</v>
+        <v>0.00164062122348696</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.005430552177131176</v>
+        <v>-0.0001377661537844688</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.009848246350884438</v>
+        <v>0.02150196768343449</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1074841618537903</v>
+        <v>0.1132287830114365</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.04071811586618423</v>
+        <v>0.02110077999532223</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.05830715224146843</v>
+        <v>0.04255432263016701</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.007144590374082327</v>
+        <v>0.007444854825735092</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.1234157979488373</v>
+        <v>0.1202383190393448</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.0299184788018465</v>
+        <v>-0.01431318558752537</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.01967077143490314</v>
+        <v>0.02187575958669186</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.02578025497496128</v>
+        <v>-0.02311617136001587</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0850648358464241</v>
+        <v>0.07446073740720749</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.07153517752885818</v>
+        <v>-0.0694841593503952</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.032649926841259</v>
+        <v>0.05325091257691383</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.04206199944019318</v>
+        <v>-0.03881087526679039</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.019040422514081</v>
+        <v>-0.01664315350353718</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0317121259868145</v>
+        <v>-0.03325339779257774</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.03126634284853935</v>
+        <v>0.01815676316618919</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.001128692063502967</v>
+        <v>-0.006187585648149252</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.001887810532934964</v>
+        <v>0.00393125182017684</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.007780674379318953</v>
+        <v>-0.001341443741694093</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.01969576440751553</v>
+        <v>-0.0325067900121212</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.0165872722864151</v>
+        <v>-0.01570803485810757</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.005943543743342161</v>
+        <v>-6.848522843938554e-06</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.07636705040931702</v>
+        <v>0.08053087443113327</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.04619789123535156</v>
+        <v>-0.04463500902056694</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.000214174942811951</v>
+        <v>-0.009286549873650074</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.001325123244896531</v>
+        <v>-0.006961071398109198</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.108543872833252</v>
+        <v>0.1103586181998253</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.006367082241922617</v>
+        <v>0.0005974598461762071</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0203553382307291</v>
+        <v>0.03212261945009232</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.1156103312969208</v>
+        <v>0.1116715297102928</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02427082695066929</v>
+        <v>0.0199605580419302</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0001620283583179116</v>
+        <v>0.0141617963090539</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.00523102143779397</v>
+        <v>0.005718392319977283</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.01354222744703293</v>
+        <v>0.02137570455670357</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.04503481462597847</v>
+        <v>-0.04256125912070274</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.02114260941743851</v>
+        <v>-0.03841613605618477</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.004622376058250666</v>
+        <v>0.008877585642039776</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.09506916254758835</v>
+        <v>0.08570156246423721</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.004674876108765602</v>
+        <v>-0.0141706233844161</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.002727050567045808</v>
+        <v>-0.006805355660617352</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.006298959720879793</v>
+        <v>0.008491513319313526</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0.1221932768821716</v>
+        <v>-0.1336500942707062</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.009512946009635925</v>
+        <v>0.005787645932286978</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.009800915606319904</v>
+        <v>0.01644290424883366</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.1769063621759415</v>
+        <v>0.1549423187971115</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.02521218359470367</v>
+        <v>-0.03606529161334038</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.09340833872556686</v>
+        <v>0.09191562235355377</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0221396554261446</v>
+        <v>0.01562654972076416</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.01525457482784986</v>
+        <v>0.01704157516360283</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0690971314907074</v>
+        <v>0.06095724925398827</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.03197494521737099</v>
+        <v>-0.03037437237799168</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.007225839886814356</v>
+        <v>0.004311022348701954</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.02183125726878643</v>
+        <v>0.01795166730880737</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.003926570527255535</v>
+        <v>0.008868728764355183</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.00693666422739625</v>
+        <v>0.004353344440460205</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.1119005605578423</v>
+        <v>0.1026550456881523</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.01963222213089466</v>
+        <v>0.008299730718135834</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.003877975977957249</v>
+        <v>-0.003624046687036753</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.009891183115541935</v>
+        <v>-0.006772533524781466</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.007888143882155418</v>
+        <v>0.00411171792075038</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.01039529871195555</v>
+        <v>0.01076332479715347</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.01438641827553511</v>
+        <v>0.01196624245494604</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.1560760736465454</v>
+        <v>-0.1554148346185684</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.01523477118462324</v>
+        <v>0.008044924587011337</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.03299639001488686</v>
+        <v>0.03569392114877701</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.003373770043253899</v>
+        <v>-0.01794618181884289</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.08356902748346329</v>
+        <v>-0.06499894708395004</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.02414019219577312</v>
+        <v>-0.0215584859251976</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.006771659012883902</v>
+        <v>0.001661635003983974</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.1494023203849792</v>
+        <v>0.13802570104599</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.002399026649072766</v>
+        <v>0.0005774292512796819</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.02091090567409992</v>
+        <v>0.0103133162483573</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.01802039332687855</v>
+        <v>-0.008411995135247707</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.05633729696273804</v>
+        <v>-0.05008405074477196</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.01297861710190773</v>
+        <v>0.001698797452263534</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.04352210462093353</v>
+        <v>0.04958723857998848</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.09464231133460999</v>
+        <v>-0.1059489697217941</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0139993391931057</v>
+        <v>0.0196070708334446</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.08985012769699097</v>
+        <v>0.09235556423664093</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.03375779464840889</v>
+        <v>-0.03429274260997772</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.01832260191440582</v>
+        <v>-0.01089567597955465</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.007902612909674644</v>
+        <v>-0.001389707671478391</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0007432230631820858</v>
+        <v>0.0003505451895762235</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.0001781776227289811</v>
+        <v>-0.004982986953109503</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.03656613826751709</v>
+        <v>-0.04474340751767159</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.01579822972416878</v>
+        <v>-0.006035305093973875</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.1042291224002838</v>
+        <v>0.1072791516780853</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.002599423052743077</v>
+        <v>-0.00747381430119276</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.004422274883836508</v>
+        <v>0.001288832863792777</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.07352054119110107</v>
+        <v>0.07377716153860092</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.04422276839613914</v>
+        <v>0.03999213874340057</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.00240641669370234</v>
+        <v>-0.003461867803707719</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.008005361072719097</v>
+        <v>0.002801217837259173</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.043463084846735</v>
+        <v>-0.04107129201292992</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.003717839950695634</v>
+        <v>0.01567924022674561</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.2294751554727554</v>
+        <v>0.2362915873527527</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.009075889363884926</v>
+        <v>-0.006685422733426094</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.005765913054347038</v>
+        <v>0.00908393133431673</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.04074735939502716</v>
+        <v>-0.02775298058986664</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0643848329782486</v>
+        <v>0.06005402281880379</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.1197722628712654</v>
+        <v>-0.1294072419404984</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.04744996130466461</v>
+        <v>0.04167534038424492</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.002040287712588906</v>
+        <v>0.0009246814297512174</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.001560938195325434</v>
+        <v>0.002355782780796289</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.02977645583450794</v>
+        <v>-0.02284034341573715</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.05198086053133011</v>
+        <v>-0.0706372857093811</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.002614793600514531</v>
+        <v>-0.0005833287723362446</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.06614247709512711</v>
+        <v>0.08096318691968918</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.07756622135639191</v>
+        <v>0.07256738841533661</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.006259341724216938</v>
+        <v>0.009200956672430038</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02390570752322674</v>
+        <v>0.01408148836344481</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.03006781078875065</v>
+        <v>0.02491499669849873</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02908233925700188</v>
+        <v>0.03543046116828918</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.06864326447248459</v>
+        <v>0.05454112589359283</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.1299465298652649</v>
+        <v>0.1253660023212433</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.1099379658699036</v>
+        <v>0.1255786269903183</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.01245867926627398</v>
+        <v>0.01238769106566906</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.1601713895797729</v>
+        <v>-0.1670427322387695</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.0005565432948060334</v>
+        <v>0.006817324552685022</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.001223134924657643</v>
+        <v>0.002875095000490546</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.04697303101420403</v>
+        <v>-0.03574394807219505</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.008183651603758335</v>
+        <v>-0.003030495485290885</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.04791011288762093</v>
+        <v>-0.05684112757444382</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.05251960083842278</v>
+        <v>0.05119545385241508</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.001319742994382977</v>
+        <v>-0.009307747706770897</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.01069485768675804</v>
+        <v>-0.003642926225438714</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.06572690606117249</v>
+        <v>-0.06839034706354141</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0192245077341795</v>
+        <v>0.02418617345392704</v>
       </c>
       <c r="FK2" t="n">
-        <v>-0.001138722873292863</v>
+        <v>-0.0007202793494798243</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0.0297562163323164</v>
+        <v>-0.02873026952147484</v>
       </c>
       <c r="FM2" t="n">
-        <v>-0.07148763537406921</v>
+        <v>-0.09109494835138321</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.01392938010394573</v>
+        <v>0.006448524072766304</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.01176392938941717</v>
+        <v>0.009004516527056694</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.001794305979274213</v>
+        <v>0.001906611025333405</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.001209705020301044</v>
+        <v>-0.002414380898699164</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0110933780670166</v>
+        <v>0.01152115780860186</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.0002710425178520381</v>
+        <v>-0.003379900241270661</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.002640970284119248</v>
+        <v>-0.004570407327264547</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0.07056207209825516</v>
+        <v>-0.06580304354429245</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.06227109953761101</v>
+        <v>0.06282946467399597</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.05308258906006813</v>
+        <v>0.06001405417919159</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.005068662576377392</v>
+        <v>-0.009144780226051807</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.006413662806153297</v>
+        <v>0.007361459545791149</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.004454350098967552</v>
+        <v>-0.003135386621579528</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.01984462141990662</v>
+        <v>0.004896231926977634</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0.0005554097006097436</v>
+        <v>0.008052239194512367</v>
       </c>
       <c r="GC2" t="n">
-        <v>-0.06437119096517563</v>
+        <v>-0.06795203685760498</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.01338406931608915</v>
+        <v>-0.02036534808576107</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.005984233692288399</v>
+        <v>0.007547355256974697</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.04084610193967819</v>
+        <v>-0.04617021232843399</v>
       </c>
       <c r="GG2" t="n">
-        <v>-0.08670001477003098</v>
+        <v>-0.08836300671100616</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.007836593315005302</v>
+        <v>-0.01038185227662325</v>
       </c>
       <c r="GI2" t="n">
-        <v>-0.01205753162503242</v>
+        <v>-0.02032496407628059</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.005809671245515347</v>
+        <v>-0.005122646689414978</v>
       </c>
       <c r="GK2" t="n">
-        <v>-0.148084819316864</v>
+        <v>-0.1611835211515427</v>
       </c>
       <c r="GL2" t="n">
-        <v>-0.07375269383192062</v>
+        <v>-0.08632083237171173</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.01493558939546347</v>
+        <v>-0.02140683867037296</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.05869342759251595</v>
+        <v>0.07908006757497787</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.07184684276580811</v>
+        <v>0.07623162120580673</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.03534357622265816</v>
+        <v>-0.03439979627728462</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.0003418993437662721</v>
+        <v>0.00191367813386023</v>
       </c>
       <c r="GR2" t="n">
-        <v>-0.002477954374626279</v>
+        <v>0.001630501938052475</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.02819822728633881</v>
+        <v>-0.0188064631074667</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.006477988325059414</v>
+        <v>-0.006952943746000528</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.001584204030223191</v>
+        <v>-0.0008995126700028777</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.01126922387629747</v>
+        <v>0.008492776192724705</v>
       </c>
       <c r="GW2" t="n">
-        <v>-0.02442334406077862</v>
+        <v>-0.03466517850756645</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.002617992227897048</v>
+        <v>0.005428368225693703</v>
       </c>
       <c r="GY2" t="n">
-        <v>-0.009841666556894779</v>
+        <v>-0.007283687591552734</v>
       </c>
     </row>
   </sheetData>
